--- a/2024_2025/Playoffs/BoxScores.xlsx
+++ b/2024_2025/Playoffs/BoxScores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A944BE-41D9-49AC-9C34-1F3DDB0CB89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268FE827-5DD7-438F-AF9A-FE1386AD1049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="531">
   <si>
     <t>Carolina Hurricanes</t>
   </si>
@@ -937,9 +937,6 @@
     <t>Kaiden Guhle</t>
   </si>
   <si>
-    <t>Marc McLaughlin</t>
-  </si>
-  <si>
     <t>Michael Amadio</t>
   </si>
   <si>
@@ -1649,6 +1646,9 @@
   </si>
   <si>
     <t>Tyler Seguin</t>
+  </si>
+  <si>
+    <t>Paul Cotter</t>
   </si>
 </sst>
 </file>
@@ -2242,7 +2242,7 @@
         <v>45766</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
         <v>45767</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2258,7 +2258,7 @@
         <v>45768</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
         <v>45769</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>45770</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>45771</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
         <v>45772</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
         <v>45773</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2306,7 +2306,7 @@
         <v>45774</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>45775</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2529,7 +2529,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2658,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" s="17"/>
     </row>
@@ -2787,7 +2787,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2966,13 +2966,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -3028,13 +3028,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -3090,13 +3090,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -3152,13 +3152,13 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3214,13 +3214,13 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -3276,13 +3276,13 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -3338,13 +3338,13 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -3400,13 +3400,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3462,13 +3462,13 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3524,13 +3524,13 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -3586,13 +3586,13 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -3648,13 +3648,13 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -3772,13 +3772,13 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -3834,13 +3834,13 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -3896,13 +3896,13 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -3958,13 +3958,13 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -4020,13 +4020,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>66</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>58</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>58</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>66</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>66</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>59</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>59</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>66</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>59</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>59</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>66</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>66</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>66</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>59</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>60</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>66</v>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>66</v>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
@@ -7586,13 +7586,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -7662,7 +7662,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -7715,15 +7715,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E25EEB-B07E-4412-867F-E46B8FE256B4}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="15" width="9.140625" style="1"/>
@@ -7798,7 +7798,2347 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>13</v>
+      </c>
+      <c r="P2" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>30</v>
+      </c>
+      <c r="P3" s="13">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.77708333333333335</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>30</v>
+      </c>
+      <c r="P4" s="13">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0.89513888888888893</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>15</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="S5" s="1">
+        <v>9</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>16</v>
+      </c>
+      <c r="P6" s="13">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>24</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>30</v>
+      </c>
+      <c r="P8" s="13">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.80347222222222225</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>24</v>
+      </c>
+      <c r="P9" s="13">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="S9" s="1">
+        <v>6</v>
+      </c>
+      <c r="T9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>26</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>23</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>19</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="S12" s="1">
+        <v>6</v>
+      </c>
+      <c r="T12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>27</v>
+      </c>
+      <c r="P13" s="13">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>16</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>29</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0.12777777777777777</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="S15" s="1">
+        <v>16</v>
+      </c>
+      <c r="T15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>21</v>
+      </c>
+      <c r="P16" s="13">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>3.6111111111111108E-2</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0.44513888888888886</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>19</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>22</v>
+      </c>
+      <c r="P18" s="13">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+      <c r="L19" s="1">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>22</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>20</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0.46944444444444444</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>27</v>
+      </c>
+      <c r="P21" s="13">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="R21" s="13">
+        <v>0.67291666666666672</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>26</v>
+      </c>
+      <c r="P22" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0.79722222222222228</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>8</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>16</v>
+      </c>
+      <c r="P23" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>26</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="R24" s="13">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>17</v>
+      </c>
+      <c r="P25" s="13">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="S25" s="1">
+        <v>7</v>
+      </c>
+      <c r="T25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>23</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>25</v>
+      </c>
+      <c r="P27" s="13">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>2.5694444444444443E-2</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>20</v>
+      </c>
+      <c r="P28" s="13">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="S28" s="1">
+        <v>3</v>
+      </c>
+      <c r="T28" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>21</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="R29" s="13">
+        <v>0.51597222222222228</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>22</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="R30" s="13">
+        <v>0.51527777777777772</v>
+      </c>
+      <c r="S30" s="1">
+        <v>8</v>
+      </c>
+      <c r="T30" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>22</v>
+      </c>
+      <c r="P31" s="13">
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>19</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>2</v>
+      </c>
+      <c r="O33" s="1">
+        <v>24</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0.54722222222222228</v>
+      </c>
+      <c r="S33" s="1">
+        <v>8</v>
+      </c>
+      <c r="T33" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>5</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>24</v>
+      </c>
+      <c r="P34" s="13">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="R34" s="13">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>20</v>
+      </c>
+      <c r="P35" s="13">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="R35" s="13">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>20</v>
+      </c>
+      <c r="P36" s="13">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>0</v>
+      </c>
+      <c r="R36" s="13">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>6</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>18</v>
+      </c>
+      <c r="P37" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>0</v>
+      </c>
+      <c r="R37" s="13">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{66493880-6844-4B71-85A0-D5BD92887933}"/>
   </hyperlinks>
@@ -8814,7 +11154,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>59</v>
@@ -8864,7 +11204,7 @@
         <v>58</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>58</v>
@@ -8914,7 +11254,7 @@
         <v>60</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>59</v>
@@ -8964,7 +11304,7 @@
         <v>66</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>66</v>
@@ -9014,7 +11354,7 @@
         <v>66</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>66</v>
@@ -9064,7 +11404,7 @@
         <v>66</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>58</v>
@@ -9114,7 +11454,7 @@
         <v>59</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>58</v>
@@ -9134,7 +11474,7 @@
         <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>66</v>
@@ -9158,7 +11498,7 @@
         <v>59</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>59</v>
@@ -9221,7 +11561,7 @@
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="20" t="s">
@@ -9309,37 +11649,37 @@
         <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="J33" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>66</v>
@@ -9359,7 +11699,7 @@
         <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>60</v>
@@ -9371,25 +11711,25 @@
         <v>58</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>58</v>
@@ -9409,37 +11749,37 @@
         <v>59</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>58</v>
@@ -9459,37 +11799,37 @@
         <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="J36" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>66</v>
@@ -9509,37 +11849,37 @@
         <v>60</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K37" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>59</v>
@@ -9559,37 +11899,37 @@
         <v>58</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K38" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>66</v>
@@ -9609,37 +11949,37 @@
         <v>59</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="H39" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M39" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>66</v>
@@ -9659,37 +11999,37 @@
         <v>59</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="H40" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K40" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>59</v>
@@ -9709,37 +12049,37 @@
         <v>60</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>59</v>
@@ -9759,37 +12099,37 @@
         <v>66</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="J42" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>59</v>
@@ -9809,37 +12149,37 @@
         <v>58</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="J43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>66</v>
@@ -9859,37 +12199,37 @@
         <v>60</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="J44" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M44" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>59</v>
@@ -9909,37 +12249,37 @@
         <v>59</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M45" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>59</v>
@@ -9959,37 +12299,37 @@
         <v>59</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="J46" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>66</v>
@@ -10009,37 +12349,37 @@
         <v>66</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K47" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>59</v>
@@ -10059,37 +12399,37 @@
         <v>66</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>58</v>
@@ -10097,49 +12437,49 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K49" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>59</v>
@@ -10147,49 +12487,49 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="D50" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>59</v>
@@ -10197,49 +12537,49 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="D51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K51" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>66</v>
@@ -10247,49 +12587,49 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M52" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>66</v>
@@ -10297,49 +12637,49 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="D53" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>66</v>
@@ -10347,49 +12687,49 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="D54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K54" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>59</v>
@@ -10397,49 +12737,49 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="D55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="J55" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>58</v>
@@ -10447,49 +12787,49 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="J56" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>58</v>
@@ -10497,49 +12837,49 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="J57" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M57" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>60</v>
@@ -10547,37 +12887,37 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K58" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>66</v>
@@ -10585,13 +12925,13 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K59" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>59</v>
@@ -10599,7 +12939,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O60" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>66</v>
@@ -10607,12 +12947,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
@@ -10623,6 +12957,12 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10633,7 +12973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85736F7A-3E99-4C20-AD41-B121213F7ABD}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10685,10 +13027,80 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="14"/>
+      <c r="A2" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="14"/>
+      <c r="A3" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2.4902777777777776</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K4" s="14"/>
@@ -10716,7 +13128,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10826,49 +13238,49 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>21</v>
@@ -10876,49 +13288,49 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>21</v>
@@ -10926,31 +13338,31 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>21</v>
@@ -10967,7 +13379,7 @@
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="20" t="s">
@@ -11043,49 +13455,49 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>21</v>
@@ -11093,49 +13505,49 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>21</v>
@@ -11143,31 +13555,31 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>21</v>
@@ -11175,12 +13587,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -11191,6 +13597,12 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11390,7 +13802,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -11430,7 +13842,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12422,7 +14834,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -12453,7 +14865,7 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3" s="17">
         <v>3</v>
@@ -12785,7 +15197,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12799,7 +15211,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -12832,11 +15244,15 @@
       <c r="A3" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
       <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -12918,7 +15334,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -12959,7 +15375,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="18" t="s">
@@ -13047,7 +15463,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -13176,7 +15592,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -13295,7 +15711,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -13360,7 +15776,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -13424,7 +15840,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>

--- a/2024_2025/Playoffs/BoxScores.xlsx
+++ b/2024_2025/Playoffs/BoxScores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268FE827-5DD7-438F-AF9A-FE1386AD1049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5439716-FE64-4AAD-8341-18593495A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="531">
   <si>
     <t>Carolina Hurricanes</t>
   </si>
@@ -7715,11 +7715,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E25EEB-B07E-4412-867F-E46B8FE256B4}">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10031,113 +10029,2345 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>16</v>
+      </c>
+      <c r="P38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="R38" s="13">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="S38" s="1">
+        <v>2</v>
+      </c>
+      <c r="T38" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1">
+        <v>30</v>
+      </c>
+      <c r="P39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="R39" s="13">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>7</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>24</v>
+      </c>
+      <c r="P40" s="13">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>0</v>
+      </c>
+      <c r="R40" s="13">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="S40" s="1">
+        <v>2</v>
+      </c>
+      <c r="T40" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>30</v>
+      </c>
+      <c r="P41" s="13">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="R41" s="13">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="S41" s="1">
+        <v>4</v>
+      </c>
+      <c r="T41" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>3</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>22</v>
+      </c>
+      <c r="P42" s="13">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>0</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>4</v>
+      </c>
+      <c r="L43" s="1">
+        <v>6</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>22</v>
+      </c>
+      <c r="P43" s="13">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>0</v>
+      </c>
+      <c r="R43" s="13">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>10</v>
+      </c>
+      <c r="L44" s="1">
+        <v>5</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>19</v>
+      </c>
+      <c r="P44" s="13">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>0</v>
+      </c>
+      <c r="R44" s="13">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="S44" s="1">
+        <v>4</v>
+      </c>
+      <c r="T44" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>4</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>18</v>
+      </c>
+      <c r="P45" s="13">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>0</v>
+      </c>
+      <c r="R45" s="13">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
+        <v>3</v>
+      </c>
+      <c r="O46" s="1">
+        <v>30</v>
+      </c>
+      <c r="P46" s="13">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="R46" s="13">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>4</v>
+      </c>
+      <c r="L47" s="1">
+        <v>3</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>16</v>
+      </c>
+      <c r="P47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>8.611111111111111E-2</v>
+      </c>
+      <c r="R47" s="13">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-    </row>
-    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-    </row>
-    <row r="53" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-    </row>
-    <row r="54" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-    </row>
-    <row r="55" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>3</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>23</v>
+      </c>
+      <c r="P48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>0</v>
+      </c>
+      <c r="R48" s="13">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>3</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <v>26</v>
+      </c>
+      <c r="P49" s="13">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="R49" s="13">
+        <v>0.7680555555555556</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>20</v>
+      </c>
+      <c r="P50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>0</v>
+      </c>
+      <c r="R50" s="13">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>2</v>
+      </c>
+      <c r="O51" s="1">
+        <v>29</v>
+      </c>
+      <c r="P51" s="13">
+        <v>4.2361111111111113E-2</v>
+      </c>
+      <c r="Q51" s="13">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="R51" s="13">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="S51" s="1">
+        <v>2</v>
+      </c>
+      <c r="T51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>5</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>32</v>
+      </c>
+      <c r="P52" s="13">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>0.19930555555555557</v>
+      </c>
+      <c r="R52" s="13">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="S52" s="1">
+        <v>6</v>
+      </c>
+      <c r="T52" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>27</v>
+      </c>
+      <c r="P53" s="13">
+        <v>8.4722222222222227E-2</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="R53" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="L54" s="1">
+        <v>9</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>24</v>
+      </c>
+      <c r="P54" s="13">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>0</v>
+      </c>
+      <c r="R54" s="13">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="S54" s="1">
+        <v>5</v>
+      </c>
+      <c r="T54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2</v>
+      </c>
+      <c r="K55" s="1">
+        <v>4</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>19</v>
+      </c>
+      <c r="P55" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>0</v>
+      </c>
+      <c r="R55" s="13">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>4</v>
+      </c>
+      <c r="M56" s="1">
+        <v>2</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>27</v>
+      </c>
+      <c r="P56" s="13">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="R56" s="13">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="S56" s="1">
+        <v>7</v>
+      </c>
+      <c r="T56" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>2</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>16</v>
+      </c>
+      <c r="P57" s="13">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>0</v>
+      </c>
+      <c r="R57" s="13">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1">
+        <v>26</v>
+      </c>
+      <c r="P58" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>9.583333333333334E-2</v>
+      </c>
+      <c r="R58" s="13">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>22</v>
+      </c>
+      <c r="P59" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>5.7638888888888892E-2</v>
+      </c>
+      <c r="R59" s="13">
+        <v>0.49236111111111114</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>31</v>
+      </c>
+      <c r="P60" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>7.1527777777777773E-2</v>
+      </c>
+      <c r="R60" s="13">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>4</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>2</v>
+      </c>
+      <c r="O61" s="1">
+        <v>32</v>
+      </c>
+      <c r="P61" s="13">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="R61" s="13">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>6</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>3</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <v>23</v>
+      </c>
+      <c r="P62" s="13">
+        <v>0.24583333333333332</v>
+      </c>
+      <c r="Q62" s="13">
+        <v>0</v>
+      </c>
+      <c r="R62" s="13">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="S62" s="1">
+        <v>13</v>
+      </c>
+      <c r="T62" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1</v>
+      </c>
+      <c r="O63" s="1">
+        <v>26</v>
+      </c>
+      <c r="P63" s="13">
+        <v>0.25972222222222224</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="R63" s="13">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>20</v>
+      </c>
+      <c r="P64" s="13">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="Q64" s="13">
+        <v>0</v>
+      </c>
+      <c r="R64" s="13">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="S64" s="1">
+        <v>1</v>
+      </c>
+      <c r="T64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
+        <v>2</v>
+      </c>
+      <c r="N65" s="1">
+        <v>4</v>
+      </c>
+      <c r="O65" s="1">
+        <v>27</v>
+      </c>
+      <c r="P65" s="13">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="R65" s="13">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="S65" s="1">
+        <v>1</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>3</v>
+      </c>
+      <c r="O66" s="1">
+        <v>27</v>
+      </c>
+      <c r="P66" s="13">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>0</v>
+      </c>
+      <c r="R66" s="13">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <v>2</v>
+      </c>
+      <c r="L67" s="1">
+        <v>3</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <v>16</v>
+      </c>
+      <c r="P67" s="13">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>0</v>
+      </c>
+      <c r="R67" s="13">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="S67" s="1">
+        <v>1</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
+        <v>31</v>
+      </c>
+      <c r="P68" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>0</v>
+      </c>
+      <c r="R68" s="13">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>17</v>
+      </c>
+      <c r="P69" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>2.5694444444444443E-2</v>
+      </c>
+      <c r="R69" s="13">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="S69" s="1">
+        <v>2</v>
+      </c>
+      <c r="T69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>2</v>
+      </c>
+      <c r="L70" s="1">
+        <v>2</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>24</v>
+      </c>
+      <c r="P70" s="13">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="R70" s="13">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="S70" s="1">
+        <v>7</v>
+      </c>
+      <c r="T70" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>3</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>2</v>
+      </c>
+      <c r="L71" s="1">
+        <v>4</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
+        <v>29</v>
+      </c>
+      <c r="P71" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>9.6527777777777782E-2</v>
+      </c>
+      <c r="R71" s="13">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>3</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>22</v>
+      </c>
+      <c r="P72" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="R72" s="13">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>2</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1">
+        <v>1</v>
+      </c>
+      <c r="N73" s="1">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <v>23</v>
+      </c>
+      <c r="P73" s="13">
+        <v>0.23680555555555555</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>0</v>
+      </c>
+      <c r="R73" s="13">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+    </row>
+    <row r="89" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+    </row>
+    <row r="90" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+    </row>
+    <row r="91" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+    </row>
+    <row r="92" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+    </row>
+    <row r="93" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+    </row>
+    <row r="94" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T19">
-    <sortCondition ref="A2:A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:V55">
+    <sortCondition ref="A38:A55"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{66493880-6844-4B71-85A0-D5BD92887933}"/>
@@ -13103,10 +15333,80 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="14"/>
+      <c r="A4" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="14"/>
+      <c r="A5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2.4958333333333331</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K6" s="14"/>
@@ -13128,7 +15428,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15197,7 +17497,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15258,11 +17558,15 @@
       <c r="A4" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
       <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">

--- a/2024_2025/Playoffs/BoxScores.xlsx
+++ b/2024_2025/Playoffs/BoxScores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314B0E6-0E68-4E3B-A28C-E627CE1C2DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="531">
   <si>
     <t>Carolina Hurricanes</t>
   </si>
@@ -1653,7 +1654,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -2214,7 +2215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2492,17 +2493,17 @@
     <mergeCell ref="A43:B43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores"/>
-    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores"/>
-    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores"/>
-    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores"/>
-    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores"/>
-    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores"/>
-    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores"/>
-    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores"/>
-    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores"/>
-    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores"/>
-    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores"/>
+    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2510,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2612,21 +2613,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2639,7 +2640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2741,21 +2742,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2768,7 +2769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,21 +2855,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2881,7 +2882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7477,11 +7478,11 @@
     <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A38:T55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:T55">
     <sortCondition ref="A38:A55"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7489,7 +7490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7705,7 +7706,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7713,7 +7714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:U130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14506,102 +14507,30 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
     </row>
-    <row r="113" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-    </row>
-    <row r="114" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-    </row>
-    <row r="115" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-    </row>
-    <row r="116" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-    </row>
-    <row r="117" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-    </row>
-    <row r="118" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-    </row>
-    <row r="119" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-    </row>
-    <row r="120" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-    </row>
-    <row r="121" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-    </row>
-    <row r="122" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-    </row>
-    <row r="123" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-    </row>
-    <row r="124" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-    </row>
-    <row r="125" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-    </row>
-    <row r="126" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-    </row>
-    <row r="127" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-    </row>
-    <row r="128" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
-      <c r="R128" s="1"/>
-    </row>
-    <row r="129" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-    </row>
-    <row r="130" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
-    </row>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A75:T92">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:T92">
     <sortCondition ref="A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14609,7 +14538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14893,7 +14822,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14901,16 +14830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="15" width="9.140625" style="1"/>
@@ -14985,9 +14914,4581 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>19</v>
+      </c>
+      <c r="P2" s="13">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>0</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>29</v>
+      </c>
+      <c r="P3" s="13">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.89652777777777781</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>19</v>
+      </c>
+      <c r="P4" s="13">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>22</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="S5" s="1">
+        <v>8</v>
+      </c>
+      <c r="T5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>22</v>
+      </c>
+      <c r="P6" s="13">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0.79305555555555551</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>17</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0.10625</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>14</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>17</v>
+      </c>
+      <c r="P9" s="13">
+        <v>3.1944444444444442E-2</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>17</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="S10" s="1">
+        <v>8</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>19</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>17</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>21</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>22</v>
+      </c>
+      <c r="P14" s="13">
+        <v>7.1527777777777773E-2</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>25</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0.96319444444444446</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>28</v>
+      </c>
+      <c r="P16" s="13">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3</v>
+      </c>
+      <c r="O17" s="1">
+        <v>27</v>
+      </c>
+      <c r="P17" s="13">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>22</v>
+      </c>
+      <c r="P18" s="13">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="S18" s="1">
+        <v>10</v>
+      </c>
+      <c r="T18" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>17</v>
+      </c>
+      <c r="P19" s="13">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>7</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>22</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>18</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>0</v>
+      </c>
+      <c r="R21" s="13">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>18</v>
+      </c>
+      <c r="P22" s="13">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>23</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>5</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>21</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="R24" s="13">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>25</v>
+      </c>
+      <c r="P25" s="13">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>24</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="S26" s="1">
+        <v>12</v>
+      </c>
+      <c r="T26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>24</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>2</v>
+      </c>
+      <c r="O28" s="1">
+        <v>26</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>5</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>17</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="S29" s="1">
+        <v>3</v>
+      </c>
+      <c r="T29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>28</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="R30" s="14">
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>24</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="R31" s="13">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="S31" s="1">
+        <v>4</v>
+      </c>
+      <c r="T31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>24</v>
+      </c>
+      <c r="P32" s="13">
+        <v>1.4583333333333334E-2</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>0</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="S32" s="1">
+        <v>7</v>
+      </c>
+      <c r="T32" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>28</v>
+      </c>
+      <c r="P33" s="13">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>2.5694444444444443E-2</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0.92152777777777772</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>16</v>
+      </c>
+      <c r="P34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>0</v>
+      </c>
+      <c r="R34" s="13">
+        <v>0.47708333333333336</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>19</v>
+      </c>
+      <c r="P35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>0</v>
+      </c>
+      <c r="R35" s="13">
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>4</v>
+      </c>
+      <c r="O36" s="1">
+        <v>26</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="R36" s="13">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="S36" s="1">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>22</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>2.5694444444444443E-2</v>
+      </c>
+      <c r="R37" s="13">
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>17</v>
+      </c>
+      <c r="P38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="R38" s="13">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>5</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2</v>
+      </c>
+      <c r="O39" s="1">
+        <v>25</v>
+      </c>
+      <c r="P39" s="13">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="R39" s="13">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="S39" s="1">
+        <v>5</v>
+      </c>
+      <c r="T39" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>2</v>
+      </c>
+      <c r="O40" s="1">
+        <v>25</v>
+      </c>
+      <c r="P40" s="13">
+        <v>0.18194444444444444</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>1.8055555555555554E-2</v>
+      </c>
+      <c r="R40" s="13">
+        <v>0.64513888888888893</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>26</v>
+      </c>
+      <c r="P41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="R41" s="13">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>5</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>22</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0.60902777777777772</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1">
+        <v>24</v>
+      </c>
+      <c r="P43" s="13">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>0</v>
+      </c>
+      <c r="R43" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>2</v>
+      </c>
+      <c r="O44" s="1">
+        <v>25</v>
+      </c>
+      <c r="P44" s="13">
+        <v>0.15625</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>0</v>
+      </c>
+      <c r="R44" s="13">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>4</v>
+      </c>
+      <c r="O45" s="1">
+        <v>25</v>
+      </c>
+      <c r="P45" s="13">
+        <v>0.1451388888888889</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>6.1111111111111109E-2</v>
+      </c>
+      <c r="R45" s="13">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+      <c r="O46" s="1">
+        <v>16</v>
+      </c>
+      <c r="P46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>5.7638888888888892E-2</v>
+      </c>
+      <c r="R46" s="13">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>15</v>
+      </c>
+      <c r="P47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>0</v>
+      </c>
+      <c r="R47" s="13">
+        <v>0.39861111111111114</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>3</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>2</v>
+      </c>
+      <c r="O48" s="1">
+        <v>21</v>
+      </c>
+      <c r="P48" s="13">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="R48" s="13">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="S48" s="1">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <v>25</v>
+      </c>
+      <c r="P49" s="13">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="R49" s="13">
+        <v>0.69166666666666665</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>20</v>
+      </c>
+      <c r="P50" s="13">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="R50" s="13">
+        <v>0.61388888888888893</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2</v>
+      </c>
+      <c r="L51" s="1">
+        <v>3</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>19</v>
+      </c>
+      <c r="P51" s="13">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Q51" s="13">
+        <v>1.8055555555555554E-2</v>
+      </c>
+      <c r="R51" s="13">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="S51" s="1">
+        <v>4</v>
+      </c>
+      <c r="T51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>2</v>
+      </c>
+      <c r="O52" s="1">
+        <v>30</v>
+      </c>
+      <c r="P52" s="13">
+        <v>0.17222222222222222</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>6.1111111111111109E-2</v>
+      </c>
+      <c r="R52" s="13">
+        <v>0.73402777777777772</v>
+      </c>
+      <c r="S52" s="1">
+        <v>9</v>
+      </c>
+      <c r="T52" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>2</v>
+      </c>
+      <c r="O53" s="1">
+        <v>18</v>
+      </c>
+      <c r="P53" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="R53" s="13">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="L54" s="1">
+        <v>4</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>17</v>
+      </c>
+      <c r="P54" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>0</v>
+      </c>
+      <c r="R54" s="13">
+        <v>0.40625</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1">
+        <v>2</v>
+      </c>
+      <c r="O55" s="1">
+        <v>22</v>
+      </c>
+      <c r="P55" s="13">
+        <v>0.16805555555555557</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>0</v>
+      </c>
+      <c r="R55" s="13">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>4</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1">
+        <v>25</v>
+      </c>
+      <c r="P56" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="R56" s="13">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="S56" s="1">
+        <v>10</v>
+      </c>
+      <c r="T56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>27</v>
+      </c>
+      <c r="P57" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R57" s="13">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>3</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>4</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>21</v>
+      </c>
+      <c r="P58" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>0.17152777777777778</v>
+      </c>
+      <c r="R58" s="13">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1">
+        <v>18</v>
+      </c>
+      <c r="P59" s="13">
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R59" s="13">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>10</v>
+      </c>
+      <c r="P60" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>0</v>
+      </c>
+      <c r="R60" s="13">
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="S60" s="1">
+        <v>1</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>32</v>
+      </c>
+      <c r="P61" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="R61" s="13">
+        <v>0.77152777777777781</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>2</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>2</v>
+      </c>
+      <c r="O62" s="1">
+        <v>31</v>
+      </c>
+      <c r="P62" s="13">
+        <v>1.8055555555555554E-2</v>
+      </c>
+      <c r="Q62" s="13">
+        <v>0.19166666666666668</v>
+      </c>
+      <c r="R62" s="13">
+        <v>0.81111111111111112</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>11</v>
+      </c>
+      <c r="P63" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>0</v>
+      </c>
+      <c r="R63" s="13">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>3</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>2</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1">
+        <v>30</v>
+      </c>
+      <c r="P64" s="13">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="Q64" s="13">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="R64" s="13">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>1</v>
+      </c>
+      <c r="O65" s="1">
+        <v>25</v>
+      </c>
+      <c r="P65" s="13">
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="R65" s="13">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>2</v>
+      </c>
+      <c r="L66" s="1">
+        <v>3</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>16</v>
+      </c>
+      <c r="P66" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>0</v>
+      </c>
+      <c r="R66" s="13">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <v>2</v>
+      </c>
+      <c r="L67" s="1">
+        <v>7</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <v>22</v>
+      </c>
+      <c r="P67" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="R67" s="13">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>3</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>2</v>
+      </c>
+      <c r="O68" s="1">
+        <v>25</v>
+      </c>
+      <c r="P68" s="13">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="R68" s="13">
+        <v>0.72847222222222219</v>
+      </c>
+      <c r="S68" s="1">
+        <v>4</v>
+      </c>
+      <c r="T68" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>3</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>21</v>
+      </c>
+      <c r="P69" s="13">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>0</v>
+      </c>
+      <c r="R69" s="13">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>2</v>
+      </c>
+      <c r="O70" s="1">
+        <v>15</v>
+      </c>
+      <c r="P70" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="R70" s="13">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="S70" s="1">
+        <v>3</v>
+      </c>
+      <c r="T70" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>2</v>
+      </c>
+      <c r="M71" s="1">
+        <v>2</v>
+      </c>
+      <c r="N71" s="1">
+        <v>2</v>
+      </c>
+      <c r="O71" s="1">
+        <v>28</v>
+      </c>
+      <c r="P71" s="13">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="R71" s="13">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>4</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>18</v>
+      </c>
+      <c r="P72" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>0</v>
+      </c>
+      <c r="R72" s="13">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>22</v>
+      </c>
+      <c r="P73" s="13">
+        <v>4.2361111111111113E-2</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="R73" s="13">
+        <v>0.52013888888888893</v>
+      </c>
+      <c r="S73" s="1">
+        <v>4</v>
+      </c>
+      <c r="T73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+    </row>
+    <row r="89" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+    </row>
+    <row r="90" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+    </row>
+    <row r="91" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+    </row>
+    <row r="92" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+    </row>
+    <row r="93" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+    </row>
+    <row r="94" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14995,7 +19496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17817,7 +22318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17874,16 +22375,156 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="14"/>
+      <c r="A2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2.4958333333333331</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="14"/>
+      <c r="A3" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="14"/>
+      <c r="A4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2.6013888888888888</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="14"/>
+      <c r="A5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2.5979166666666669</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K6" s="14"/>
@@ -17893,7 +22534,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -17901,7 +22542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18129,7 +22770,7 @@
       <c r="M55" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="C2:C17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C17">
     <sortCondition ref="C2:C17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18137,11 +22778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18623,7 +23264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18707,7 +23348,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18715,7 +23356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18789,7 +23430,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18797,7 +23438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18881,7 +23522,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18889,7 +23530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18963,7 +23604,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18971,7 +23612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19057,7 +23698,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19065,7 +23706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19141,7 +23782,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19149,7 +23790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19233,7 +23874,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19241,7 +23882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19315,7 +23956,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19323,7 +23964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19407,7 +24048,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19415,7 +24056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19505,21 +24146,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense"/>
-    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -19532,7 +24173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19606,7 +24247,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19614,7 +24255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19700,7 +24341,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19708,7 +24349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19784,7 +24425,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19792,7 +24433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19896,21 +24537,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense"/>
-    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -19923,11 +24564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19974,21 +24615,32 @@
       <c r="A3" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="17">
+        <v>2</v>
+      </c>
       <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
       <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -20025,21 +24677,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -20052,7 +24704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20154,21 +24806,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -20181,7 +24833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20273,21 +24925,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense"/>
-    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -20300,7 +24952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20402,21 +25054,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -20429,7 +25081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20521,21 +25173,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense"/>
-    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/BoxScores.xlsx
+++ b/2024_2025/Playoffs/BoxScores.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314B0E6-0E68-4E3B-A28C-E627CE1C2DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -30,11 +29,11 @@
     <sheet name="Offense (4-20-25)" sheetId="13" r:id="rId15"/>
     <sheet name="Goalies (4-20-25)" sheetId="14" r:id="rId16"/>
     <sheet name="Offense (4-21-25)" sheetId="17" r:id="rId17"/>
-    <sheet name="Rosters (Offense - 24)" sheetId="10" r:id="rId18"/>
-    <sheet name="Goalies (4-21-25)" sheetId="18" r:id="rId19"/>
-    <sheet name="Rosters (Goalies - 3)" sheetId="11" r:id="rId20"/>
-    <sheet name="Offense (4-22-25)" sheetId="19" r:id="rId21"/>
-    <sheet name="Goalies (4-22-25)" sheetId="20" r:id="rId22"/>
+    <sheet name="Goalies (4-21-25)" sheetId="18" r:id="rId18"/>
+    <sheet name="Offense (4-22-25)" sheetId="19" r:id="rId19"/>
+    <sheet name="Rosters (Offense - 24)" sheetId="10" r:id="rId20"/>
+    <sheet name="Goalies (4-22-25)" sheetId="20" r:id="rId21"/>
+    <sheet name="Rosters (Goalies - 3)" sheetId="11" r:id="rId22"/>
     <sheet name="Offense (4-23-25)" sheetId="22" r:id="rId23"/>
     <sheet name="Goalies (4-23-25)" sheetId="23" r:id="rId24"/>
     <sheet name="Offense (4-24-25)" sheetId="25" r:id="rId25"/>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="531">
   <si>
     <t>Carolina Hurricanes</t>
   </si>
@@ -1654,7 +1653,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -2215,7 +2214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2493,17 +2492,17 @@
     <mergeCell ref="A43:B43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores"/>
+    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores"/>
+    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores"/>
+    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores"/>
+    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores"/>
+    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores"/>
+    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores"/>
+    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores"/>
+    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores"/>
+    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores"/>
+    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2511,7 +2510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2613,21 +2612,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2640,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2742,21 +2741,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2769,7 +2768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,21 +2854,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2882,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7478,11 +7477,11 @@
     <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:T55">
+  <sortState ref="A38:T55">
     <sortCondition ref="A38:A55"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7490,7 +7489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7706,7 +7705,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7714,7 +7713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14526,11 +14525,11 @@
     <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:T92">
+  <sortState ref="A75:T92">
     <sortCondition ref="A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14538,7 +14537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14822,7 +14821,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14830,12 +14829,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:U94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19379,116 +19376,4580 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>2</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1">
+        <v>31</v>
+      </c>
+      <c r="P74" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="R74" s="13">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>3</v>
+      </c>
+      <c r="M75" s="1">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>25</v>
+      </c>
+      <c r="P75" s="13">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>0</v>
+      </c>
+      <c r="R75" s="13">
+        <v>0.79027777777777775</v>
+      </c>
+      <c r="S75" s="1">
+        <v>8</v>
+      </c>
+      <c r="T75" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>6</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>2</v>
+      </c>
+      <c r="M76" s="1">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1">
+        <v>2</v>
+      </c>
+      <c r="O76" s="1">
+        <v>38</v>
+      </c>
+      <c r="P76" s="13">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q76" s="13">
+        <v>0.14305555555555557</v>
+      </c>
+      <c r="R76" s="13">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>6</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>27</v>
+      </c>
+      <c r="P77" s="13">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="R77" s="13">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="S77" s="1">
+        <v>11</v>
+      </c>
+      <c r="T77" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>2</v>
+      </c>
+      <c r="I78" s="1">
+        <v>7</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>1</v>
+      </c>
+      <c r="N78" s="1">
+        <v>1</v>
+      </c>
+      <c r="O78" s="1">
+        <v>41</v>
+      </c>
+      <c r="P78" s="13">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="Q78" s="13">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="R78" s="14">
+        <v>1.2034722222222223</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>2</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>2</v>
+      </c>
+      <c r="M79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>26</v>
+      </c>
+      <c r="P79" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="13">
+        <v>0</v>
+      </c>
+      <c r="R79" s="13">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-    </row>
-    <row r="83" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-    </row>
-    <row r="86" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-    </row>
-    <row r="87" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-    </row>
-    <row r="88" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-    </row>
-    <row r="89" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-    </row>
-    <row r="90" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-    </row>
-    <row r="91" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-    </row>
-    <row r="92" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-    </row>
-    <row r="93" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-    </row>
-    <row r="94" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2</v>
+      </c>
+      <c r="H80" s="1">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>1</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <v>23</v>
+      </c>
+      <c r="P80" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="13">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="R80" s="13">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="S80" s="1">
+        <v>1</v>
+      </c>
+      <c r="T80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1">
+        <v>2</v>
+      </c>
+      <c r="L81" s="1">
+        <v>4</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>25</v>
+      </c>
+      <c r="P81" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="13">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="R81" s="13">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1">
+        <v>3</v>
+      </c>
+      <c r="O82" s="1">
+        <v>27</v>
+      </c>
+      <c r="P82" s="13">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="Q82" s="13">
+        <v>0</v>
+      </c>
+      <c r="R82" s="13">
+        <v>0.75069444444444444</v>
+      </c>
+      <c r="S82" s="1">
+        <v>1</v>
+      </c>
+      <c r="T82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>2</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
+        <v>2</v>
+      </c>
+      <c r="L83" s="1">
+        <v>4</v>
+      </c>
+      <c r="M83" s="1">
+        <v>1</v>
+      </c>
+      <c r="N83" s="1">
+        <v>2</v>
+      </c>
+      <c r="O83" s="1">
+        <v>35</v>
+      </c>
+      <c r="P83" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="13">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="R83" s="13">
+        <v>0.90486111111111101</v>
+      </c>
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+      <c r="T83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1</v>
+      </c>
+      <c r="K84" s="1">
+        <v>2</v>
+      </c>
+      <c r="L84" s="1">
+        <v>2</v>
+      </c>
+      <c r="M84" s="1">
+        <v>1</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>25</v>
+      </c>
+      <c r="P84" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="13">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="R84" s="13">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>3</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>1</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>1</v>
+      </c>
+      <c r="O85" s="1">
+        <v>31</v>
+      </c>
+      <c r="P85" s="13">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="Q85" s="13">
+        <v>0</v>
+      </c>
+      <c r="R85" s="13">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>7</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+      <c r="O86" s="1">
+        <v>21</v>
+      </c>
+      <c r="P86" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="13">
+        <v>0</v>
+      </c>
+      <c r="R86" s="13">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>4</v>
+      </c>
+      <c r="H87" s="1">
+        <v>2</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>3</v>
+      </c>
+      <c r="M87" s="1">
+        <v>2</v>
+      </c>
+      <c r="N87" s="1">
+        <v>3</v>
+      </c>
+      <c r="O87" s="1">
+        <v>32</v>
+      </c>
+      <c r="P87" s="13">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="Q87" s="13">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="R87" s="13">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="S87" s="1">
+        <v>16</v>
+      </c>
+      <c r="T87" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1">
+        <v>2</v>
+      </c>
+      <c r="L88" s="1">
+        <v>4</v>
+      </c>
+      <c r="M88" s="1">
+        <v>1</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
+        <v>23</v>
+      </c>
+      <c r="P88" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="13">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="R88" s="13">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="T88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2</v>
+      </c>
+      <c r="I89" s="1">
+        <v>2</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>40</v>
+      </c>
+      <c r="P89" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="13">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="R89" s="13">
+        <v>0.94305555555555554</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>1</v>
+      </c>
+      <c r="O90" s="1">
+        <v>31</v>
+      </c>
+      <c r="P90" s="13">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Q90" s="13">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="R90" s="13">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+      <c r="T90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>4</v>
+      </c>
+      <c r="H91" s="1">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1">
+        <v>2</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>2</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>2</v>
+      </c>
+      <c r="O91" s="1">
+        <v>29</v>
+      </c>
+      <c r="P91" s="13">
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="Q91" s="13">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="R91" s="13">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+      <c r="T91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1">
+        <v>1</v>
+      </c>
+      <c r="N92" s="1">
+        <v>1</v>
+      </c>
+      <c r="O92" s="1">
+        <v>20</v>
+      </c>
+      <c r="P92" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="13">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="R92" s="13">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="S92" s="1">
+        <v>0</v>
+      </c>
+      <c r="T92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1">
+        <v>3</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>4</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>35</v>
+      </c>
+      <c r="P93" s="13">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="Q93" s="13">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="R93" s="14">
+        <v>1.0527777777777778</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>5</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>5</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
+        <v>19</v>
+      </c>
+      <c r="P94" s="13">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Q94" s="13">
+        <v>3.125E-2</v>
+      </c>
+      <c r="R94" s="13">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+      <c r="T94" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G95" s="1">
+        <v>2</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>4</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>2</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>37</v>
+      </c>
+      <c r="P95" s="13">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="Q95" s="13">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="R95" s="14">
+        <v>1.0652777777777778</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+      <c r="T95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1">
+        <v>24</v>
+      </c>
+      <c r="P96" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="13">
+        <v>0</v>
+      </c>
+      <c r="R96" s="13">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+      <c r="T96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2</v>
+      </c>
+      <c r="G97" s="1">
+        <v>4</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>2</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1</v>
+      </c>
+      <c r="O97" s="1">
+        <v>36</v>
+      </c>
+      <c r="P97" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="13">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="R97" s="13">
+        <v>0.97430555555555554</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+      <c r="T97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>4</v>
+      </c>
+      <c r="H98" s="1">
+        <v>4</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>4</v>
+      </c>
+      <c r="M98" s="1">
+        <v>1</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1">
+        <v>26</v>
+      </c>
+      <c r="P98" s="13">
+        <v>0.1013888888888889</v>
+      </c>
+      <c r="Q98" s="13">
+        <v>0</v>
+      </c>
+      <c r="R98" s="13">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="S98" s="1">
+        <v>3</v>
+      </c>
+      <c r="T98" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>5</v>
+      </c>
+      <c r="M99" s="1">
+        <v>1</v>
+      </c>
+      <c r="N99" s="1">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>21</v>
+      </c>
+      <c r="P99" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="13">
+        <v>0</v>
+      </c>
+      <c r="R99" s="13">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+      <c r="T99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1">
+        <v>2</v>
+      </c>
+      <c r="L100" s="1">
+        <v>4</v>
+      </c>
+      <c r="M100" s="1">
+        <v>1</v>
+      </c>
+      <c r="N100" s="1">
+        <v>2</v>
+      </c>
+      <c r="O100" s="1">
+        <v>27</v>
+      </c>
+      <c r="P100" s="13">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="Q100" s="13">
+        <v>0</v>
+      </c>
+      <c r="R100" s="13">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="S100" s="1">
+        <v>0</v>
+      </c>
+      <c r="T100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>3</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1">
+        <v>2</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" s="1">
+        <v>2</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1">
+        <v>1</v>
+      </c>
+      <c r="O101" s="1">
+        <v>25</v>
+      </c>
+      <c r="P101" s="13">
+        <v>0.1875</v>
+      </c>
+      <c r="Q101" s="13">
+        <v>0</v>
+      </c>
+      <c r="R101" s="13">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="S101" s="1">
+        <v>0</v>
+      </c>
+      <c r="T101" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1">
+        <v>2</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1">
+        <v>2</v>
+      </c>
+      <c r="L102" s="1">
+        <v>1</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>30</v>
+      </c>
+      <c r="P102" s="13">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="Q102" s="13">
+        <v>0</v>
+      </c>
+      <c r="R102" s="13">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="S102" s="1">
+        <v>0</v>
+      </c>
+      <c r="T102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G103" s="1">
+        <v>3</v>
+      </c>
+      <c r="H103" s="1">
+        <v>2</v>
+      </c>
+      <c r="I103" s="1">
+        <v>2</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>2</v>
+      </c>
+      <c r="L103" s="1">
+        <v>3</v>
+      </c>
+      <c r="M103" s="1">
+        <v>0</v>
+      </c>
+      <c r="N103" s="1">
+        <v>2</v>
+      </c>
+      <c r="O103" s="1">
+        <v>27</v>
+      </c>
+      <c r="P103" s="13">
+        <v>0.22361111111111109</v>
+      </c>
+      <c r="Q103" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="R103" s="13">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="S103" s="1">
+        <v>0</v>
+      </c>
+      <c r="T103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>2</v>
+      </c>
+      <c r="M104" s="1">
+        <v>1</v>
+      </c>
+      <c r="N104" s="1">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1">
+        <v>21</v>
+      </c>
+      <c r="P104" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="13">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="R104" s="13">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="S104" s="1">
+        <v>1</v>
+      </c>
+      <c r="T104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G105" s="1">
+        <v>4</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" s="1">
+        <v>2</v>
+      </c>
+      <c r="M105" s="1">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1">
+        <v>1</v>
+      </c>
+      <c r="O105" s="1">
+        <v>30</v>
+      </c>
+      <c r="P105" s="13">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="Q105" s="13">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="R105" s="13">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="S105" s="1">
+        <v>14</v>
+      </c>
+      <c r="T105" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>2</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>3</v>
+      </c>
+      <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>1</v>
+      </c>
+      <c r="O106" s="1">
+        <v>24</v>
+      </c>
+      <c r="P106" s="13">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="Q106" s="13">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="R106" s="13">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="S106" s="1">
+        <v>1</v>
+      </c>
+      <c r="T106" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1</v>
+      </c>
+      <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>3</v>
+      </c>
+      <c r="O107" s="1">
+        <v>38</v>
+      </c>
+      <c r="P107" s="13">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="Q107" s="13">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="R107" s="14">
+        <v>1.1555555555555557</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="1">
+        <v>2</v>
+      </c>
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+      <c r="N108" s="1">
+        <v>2</v>
+      </c>
+      <c r="O108" s="1">
+        <v>25</v>
+      </c>
+      <c r="P108" s="13">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="Q108" s="13">
+        <v>0</v>
+      </c>
+      <c r="R108" s="13">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="S108" s="1">
+        <v>5</v>
+      </c>
+      <c r="T108" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>5</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="1">
+        <v>3</v>
+      </c>
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>29</v>
+      </c>
+      <c r="P109" s="13">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="Q109" s="13">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="R109" s="13">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="S109" s="1">
+        <v>7</v>
+      </c>
+      <c r="T109" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1">
+        <v>5</v>
+      </c>
+      <c r="M110" s="1">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1">
+        <v>1</v>
+      </c>
+      <c r="O110" s="1">
+        <v>21</v>
+      </c>
+      <c r="P110" s="13">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="Q110" s="13">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="R110" s="13">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="S110" s="1">
+        <v>4</v>
+      </c>
+      <c r="T110" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>2</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>1</v>
+      </c>
+      <c r="K111" s="1">
+        <v>2</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1">
+        <v>1</v>
+      </c>
+      <c r="O111" s="1">
+        <v>33</v>
+      </c>
+      <c r="P111" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="13">
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="R111" s="13">
+        <v>0.92152777777777783</v>
+      </c>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+      <c r="T111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>2</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>2</v>
+      </c>
+      <c r="M112" s="1">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>17</v>
+      </c>
+      <c r="P112" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="13">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="R112" s="13">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="S112" s="1">
+        <v>0</v>
+      </c>
+      <c r="T112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>3</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1">
+        <v>3</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>5</v>
+      </c>
+      <c r="M113" s="1">
+        <v>1</v>
+      </c>
+      <c r="N113" s="1">
+        <v>2</v>
+      </c>
+      <c r="O113" s="1">
+        <v>24</v>
+      </c>
+      <c r="P113" s="13">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="Q113" s="13">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="R113" s="13">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="S113" s="1">
+        <v>7</v>
+      </c>
+      <c r="T113" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1">
+        <v>4</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>2</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>20</v>
+      </c>
+      <c r="P114" s="13">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="Q114" s="13">
+        <v>0</v>
+      </c>
+      <c r="R114" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S114" s="1">
+        <v>0</v>
+      </c>
+      <c r="T114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G115" s="1">
+        <v>3</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1">
+        <v>6</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L115" s="1">
+        <v>2</v>
+      </c>
+      <c r="M115" s="1">
+        <v>0</v>
+      </c>
+      <c r="N115" s="1">
+        <v>0</v>
+      </c>
+      <c r="O115" s="1">
+        <v>32</v>
+      </c>
+      <c r="P115" s="13">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="Q115" s="13">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="R115" s="13">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="S115" s="1">
+        <v>0</v>
+      </c>
+      <c r="T115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>3</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1">
+        <v>4</v>
+      </c>
+      <c r="H116" s="1">
+        <v>3</v>
+      </c>
+      <c r="I116" s="1">
+        <v>2</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0</v>
+      </c>
+      <c r="M116" s="1">
+        <v>1</v>
+      </c>
+      <c r="N116" s="1">
+        <v>4</v>
+      </c>
+      <c r="O116" s="1">
+        <v>28</v>
+      </c>
+      <c r="P116" s="13">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="Q116" s="13">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="R116" s="14">
+        <v>1.0069444444444444</v>
+      </c>
+      <c r="S116" s="1">
+        <v>0</v>
+      </c>
+      <c r="T116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1">
+        <v>2</v>
+      </c>
+      <c r="J117" s="1">
+        <v>2</v>
+      </c>
+      <c r="K117" s="1">
+        <v>4</v>
+      </c>
+      <c r="L117" s="1">
+        <v>4</v>
+      </c>
+      <c r="M117" s="1">
+        <v>0</v>
+      </c>
+      <c r="N117" s="1">
+        <v>1</v>
+      </c>
+      <c r="O117" s="1">
+        <v>28</v>
+      </c>
+      <c r="P117" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="Q117" s="13">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="R117" s="13">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="S117" s="1">
+        <v>0</v>
+      </c>
+      <c r="T117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>5</v>
+      </c>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1">
+        <v>0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>15</v>
+      </c>
+      <c r="P118" s="13">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="Q118" s="13">
+        <v>0</v>
+      </c>
+      <c r="R118" s="13">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="S118" s="1">
+        <v>0</v>
+      </c>
+      <c r="T118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1">
+        <v>3</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0</v>
+      </c>
+      <c r="M119" s="1">
+        <v>0</v>
+      </c>
+      <c r="N119" s="1">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1">
+        <v>10</v>
+      </c>
+      <c r="P119" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="13">
+        <v>0.10625</v>
+      </c>
+      <c r="R119" s="13">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="S119" s="1">
+        <v>0</v>
+      </c>
+      <c r="T119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>3</v>
+      </c>
+      <c r="G120" s="1">
+        <v>4</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1">
+        <v>2</v>
+      </c>
+      <c r="M120" s="1">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>22</v>
+      </c>
+      <c r="P120" s="13">
+        <v>0.15694444444444444</v>
+      </c>
+      <c r="Q120" s="13">
+        <v>0</v>
+      </c>
+      <c r="R120" s="13">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="S120" s="1">
+        <v>12</v>
+      </c>
+      <c r="T120" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1</v>
+      </c>
+      <c r="H121" s="1">
+        <v>2</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+      <c r="L121" s="1">
+        <v>2</v>
+      </c>
+      <c r="M121" s="1">
+        <v>0</v>
+      </c>
+      <c r="N121" s="1">
+        <v>0</v>
+      </c>
+      <c r="O121" s="1">
+        <v>18</v>
+      </c>
+      <c r="P121" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="13">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="R121" s="13">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="S121" s="1">
+        <v>2</v>
+      </c>
+      <c r="T121" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+      <c r="M122" s="1">
+        <v>0</v>
+      </c>
+      <c r="N122" s="1">
+        <v>2</v>
+      </c>
+      <c r="O122" s="1">
+        <v>25</v>
+      </c>
+      <c r="P122" s="13">
+        <v>0.15625</v>
+      </c>
+      <c r="Q122" s="13">
+        <v>0.14305555555555557</v>
+      </c>
+      <c r="R122" s="13">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="S122" s="1">
+        <v>9</v>
+      </c>
+      <c r="T122" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>2</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>2</v>
+      </c>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
+      <c r="N123" s="1">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>14</v>
+      </c>
+      <c r="P123" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="13">
+        <v>0</v>
+      </c>
+      <c r="R123" s="13">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="S123" s="1">
+        <v>0</v>
+      </c>
+      <c r="T123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+      <c r="L124" s="1">
+        <v>1</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0</v>
+      </c>
+      <c r="N124" s="1">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>19</v>
+      </c>
+      <c r="P124" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="13">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="R124" s="13">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="S124" s="1">
+        <v>0</v>
+      </c>
+      <c r="T124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1">
+        <v>4</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0</v>
+      </c>
+      <c r="N125" s="1">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>16</v>
+      </c>
+      <c r="P125" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="13">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="R125" s="13">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="S125" s="1">
+        <v>0</v>
+      </c>
+      <c r="T125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>2</v>
+      </c>
+      <c r="H126" s="1">
+        <v>1</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1">
+        <v>0</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>0</v>
+      </c>
+      <c r="N126" s="1">
+        <v>0</v>
+      </c>
+      <c r="O126" s="1">
+        <v>18</v>
+      </c>
+      <c r="P126" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="13">
+        <v>0</v>
+      </c>
+      <c r="R126" s="13">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="S126" s="1">
+        <v>0</v>
+      </c>
+      <c r="T126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>1</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>1</v>
+      </c>
+      <c r="K127" s="1">
+        <v>2</v>
+      </c>
+      <c r="L127" s="1">
+        <v>6</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1">
+        <v>22</v>
+      </c>
+      <c r="P127" s="13">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="Q127" s="13">
+        <v>0</v>
+      </c>
+      <c r="R127" s="13">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="S127" s="1">
+        <v>0</v>
+      </c>
+      <c r="T127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2</v>
+      </c>
+      <c r="F128" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G128" s="1">
+        <v>3</v>
+      </c>
+      <c r="H128" s="1">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1">
+        <v>2</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0</v>
+      </c>
+      <c r="L128" s="1">
+        <v>2</v>
+      </c>
+      <c r="M128" s="1">
+        <v>0</v>
+      </c>
+      <c r="N128" s="1">
+        <v>2</v>
+      </c>
+      <c r="O128" s="1">
+        <v>26</v>
+      </c>
+      <c r="P128" s="13">
+        <v>0.21319444444444444</v>
+      </c>
+      <c r="Q128" s="13">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="R128" s="13">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="S128" s="1">
+        <v>1</v>
+      </c>
+      <c r="T128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>2</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0</v>
+      </c>
+      <c r="L129" s="1">
+        <v>4</v>
+      </c>
+      <c r="M129" s="1">
+        <v>0</v>
+      </c>
+      <c r="N129" s="1">
+        <v>0</v>
+      </c>
+      <c r="O129" s="1">
+        <v>23</v>
+      </c>
+      <c r="P129" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="13">
+        <v>0</v>
+      </c>
+      <c r="R129" s="13">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="S129" s="1">
+        <v>0</v>
+      </c>
+      <c r="T129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0</v>
+      </c>
+      <c r="L130" s="1">
+        <v>1</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+      <c r="N130" s="1">
+        <v>0</v>
+      </c>
+      <c r="O130" s="1">
+        <v>9</v>
+      </c>
+      <c r="P130" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="13">
+        <v>0</v>
+      </c>
+      <c r="R130" s="13">
+        <v>0.17569444444444446</v>
+      </c>
+      <c r="S130" s="1">
+        <v>0</v>
+      </c>
+      <c r="T130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1">
+        <v>5</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0</v>
+      </c>
+      <c r="L131" s="1">
+        <v>1</v>
+      </c>
+      <c r="M131" s="1">
+        <v>0</v>
+      </c>
+      <c r="N131" s="1">
+        <v>1</v>
+      </c>
+      <c r="O131" s="1">
+        <v>20</v>
+      </c>
+      <c r="P131" s="13">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="Q131" s="13">
+        <v>0</v>
+      </c>
+      <c r="R131" s="13">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="S131" s="1">
+        <v>0</v>
+      </c>
+      <c r="T131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>2</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+      <c r="L132" s="1">
+        <v>1</v>
+      </c>
+      <c r="M132" s="1">
+        <v>2</v>
+      </c>
+      <c r="N132" s="1">
+        <v>1</v>
+      </c>
+      <c r="O132" s="1">
+        <v>26</v>
+      </c>
+      <c r="P132" s="13">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="Q132" s="13">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="R132" s="13">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="S132" s="1">
+        <v>17</v>
+      </c>
+      <c r="T132" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
+        <v>1</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>1</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1</v>
+      </c>
+      <c r="N133" s="1">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1">
+        <v>17</v>
+      </c>
+      <c r="P133" s="13">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="Q133" s="13">
+        <v>0</v>
+      </c>
+      <c r="R133" s="13">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="S133" s="1">
+        <v>0</v>
+      </c>
+      <c r="T133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G134" s="1">
+        <v>1</v>
+      </c>
+      <c r="H134" s="1">
+        <v>2</v>
+      </c>
+      <c r="I134" s="1">
+        <v>3</v>
+      </c>
+      <c r="J134" s="1">
+        <v>1</v>
+      </c>
+      <c r="K134" s="1">
+        <v>2</v>
+      </c>
+      <c r="L134" s="1">
+        <v>0</v>
+      </c>
+      <c r="M134" s="1">
+        <v>0</v>
+      </c>
+      <c r="N134" s="1">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>33</v>
+      </c>
+      <c r="P134" s="13">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="Q134" s="13">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="R134" s="13">
+        <v>0.97638888888888886</v>
+      </c>
+      <c r="S134" s="1">
+        <v>0</v>
+      </c>
+      <c r="T134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+      <c r="L135" s="1">
+        <v>1</v>
+      </c>
+      <c r="M135" s="1">
+        <v>0</v>
+      </c>
+      <c r="N135" s="1">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>9</v>
+      </c>
+      <c r="P135" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="13">
+        <v>0</v>
+      </c>
+      <c r="R135" s="13">
+        <v>0.15625</v>
+      </c>
+      <c r="S135" s="1">
+        <v>0</v>
+      </c>
+      <c r="T135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+      <c r="I136" s="1">
+        <v>1</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0</v>
+      </c>
+      <c r="L136" s="1">
+        <v>1</v>
+      </c>
+      <c r="M136" s="1">
+        <v>0</v>
+      </c>
+      <c r="N136" s="1">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>29</v>
+      </c>
+      <c r="P136" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="13">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="R136" s="13">
+        <v>0.80347222222222225</v>
+      </c>
+      <c r="S136" s="1">
+        <v>0</v>
+      </c>
+      <c r="T136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1</v>
+      </c>
+      <c r="I137" s="1">
+        <v>1</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0</v>
+      </c>
+      <c r="L137" s="1">
+        <v>1</v>
+      </c>
+      <c r="M137" s="1">
+        <v>0</v>
+      </c>
+      <c r="N137" s="1">
+        <v>0</v>
+      </c>
+      <c r="O137" s="1">
+        <v>8</v>
+      </c>
+      <c r="P137" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="13">
+        <v>0</v>
+      </c>
+      <c r="R137" s="13">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="S137" s="1">
+        <v>0</v>
+      </c>
+      <c r="T137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
+        <v>2</v>
+      </c>
+      <c r="G138" s="1">
+        <v>6</v>
+      </c>
+      <c r="H138" s="1">
+        <v>5</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0</v>
+      </c>
+      <c r="L138" s="1">
+        <v>3</v>
+      </c>
+      <c r="M138" s="1">
+        <v>1</v>
+      </c>
+      <c r="N138" s="1">
+        <v>0</v>
+      </c>
+      <c r="O138" s="1">
+        <v>26</v>
+      </c>
+      <c r="P138" s="13">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="Q138" s="13">
+        <v>0</v>
+      </c>
+      <c r="R138" s="13">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="S138" s="1">
+        <v>0</v>
+      </c>
+      <c r="T138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
+        <v>3</v>
+      </c>
+      <c r="J139" s="1">
+        <v>1</v>
+      </c>
+      <c r="K139" s="1">
+        <v>2</v>
+      </c>
+      <c r="L139" s="1">
+        <v>0</v>
+      </c>
+      <c r="M139" s="1">
+        <v>0</v>
+      </c>
+      <c r="N139" s="1">
+        <v>2</v>
+      </c>
+      <c r="O139" s="1">
+        <v>31</v>
+      </c>
+      <c r="P139" s="13">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="Q139" s="13">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="R139" s="13">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="S139" s="1">
+        <v>0</v>
+      </c>
+      <c r="T139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
+      <c r="G140" s="1">
+        <v>2</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>0</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>3</v>
+      </c>
+      <c r="M140" s="1">
+        <v>1</v>
+      </c>
+      <c r="N140" s="1">
+        <v>1</v>
+      </c>
+      <c r="O140" s="1">
+        <v>28</v>
+      </c>
+      <c r="P140" s="13">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="Q140" s="13">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="R140" s="13">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="S140" s="1">
+        <v>7</v>
+      </c>
+      <c r="T140" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G141" s="1">
+        <v>3</v>
+      </c>
+      <c r="H141" s="1">
+        <v>1</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0</v>
+      </c>
+      <c r="L141" s="1">
+        <v>3</v>
+      </c>
+      <c r="M141" s="1">
+        <v>0</v>
+      </c>
+      <c r="N141" s="1">
+        <v>2</v>
+      </c>
+      <c r="O141" s="1">
+        <v>32</v>
+      </c>
+      <c r="P141" s="13">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="Q141" s="13">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="R141" s="13">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="S141" s="1">
+        <v>6</v>
+      </c>
+      <c r="T141" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>2</v>
+      </c>
+      <c r="M142" s="1">
+        <v>0</v>
+      </c>
+      <c r="N142" s="1">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>8</v>
+      </c>
+      <c r="P142" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="13">
+        <v>0</v>
+      </c>
+      <c r="R142" s="13">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="S142" s="1">
+        <v>0</v>
+      </c>
+      <c r="T142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
+      <c r="G143" s="1">
+        <v>3</v>
+      </c>
+      <c r="H143" s="1">
+        <v>1</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0</v>
+      </c>
+      <c r="L143" s="1">
+        <v>2</v>
+      </c>
+      <c r="M143" s="1">
+        <v>0</v>
+      </c>
+      <c r="N143" s="1">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>28</v>
+      </c>
+      <c r="P143" s="13">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="Q143" s="13">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="R143" s="13">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="S143" s="1">
+        <v>0</v>
+      </c>
+      <c r="T143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+      <c r="H144" s="1">
+        <v>2</v>
+      </c>
+      <c r="I144" s="1">
+        <v>3</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0</v>
+      </c>
+      <c r="K144" s="1">
+        <v>0</v>
+      </c>
+      <c r="L144" s="1">
+        <v>1</v>
+      </c>
+      <c r="M144" s="1">
+        <v>0</v>
+      </c>
+      <c r="N144" s="1">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>26</v>
+      </c>
+      <c r="P144" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="13">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="R144" s="13">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="S144" s="1">
+        <v>0</v>
+      </c>
+      <c r="T144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+      <c r="G145" s="1">
+        <v>4</v>
+      </c>
+      <c r="H145" s="1">
+        <v>1</v>
+      </c>
+      <c r="I145" s="1">
+        <v>1</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>0</v>
+      </c>
+      <c r="L145" s="1">
+        <v>3</v>
+      </c>
+      <c r="M145" s="1">
+        <v>0</v>
+      </c>
+      <c r="N145" s="1">
+        <v>3</v>
+      </c>
+      <c r="O145" s="1">
+        <v>25</v>
+      </c>
+      <c r="P145" s="13">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="Q145" s="13">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="R145" s="13">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="S145" s="1">
+        <v>0</v>
+      </c>
+      <c r="T145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+    </row>
+    <row r="161" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+    </row>
+    <row r="162" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+    </row>
+    <row r="163" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+    </row>
+    <row r="164" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+    </row>
+    <row r="165" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+    </row>
+    <row r="166" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T19">
-    <sortCondition ref="A2:A19"/>
+  <sortState ref="A75:T92">
+    <sortCondition ref="A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19496,7 +23957,705 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2.4958333333333331</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2.6013888888888888</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2.5979166666666669</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2.3972222222222221</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>3.2368055555555557</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>3.2256944444444446</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="13"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="48" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="M55" s="4"/>
+    </row>
+  </sheetData>
+  <sortState ref="C2:C17">
+    <sortCondition ref="C2:C17"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22317,8 +27476,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22375,156 +27534,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="14">
-        <v>2.4958333333333331</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
-        <v>2.3840277777777779</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>2.6013888888888888</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14">
-        <v>2.5979166666666669</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K6" s="14"/>
@@ -22534,255 +27553,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="I44" s="4"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="I45" s="4"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="48" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="I49" s="4"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H53" s="4"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="M55" s="4"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C17">
-    <sortCondition ref="C2:C17"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23263,8 +28046,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23348,15 +28131,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23430,181 +28213,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="13"/>
-    <col min="19" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K7" s="14"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23612,7 +28221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23698,7 +28307,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23706,7 +28315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23782,7 +28391,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23790,7 +28399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23874,7 +28483,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23882,7 +28491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23956,7 +28565,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23964,7 +28573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24048,7 +28657,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1C00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24056,7 +28665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24146,21 +28755,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense"/>
+    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -24173,7 +28782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24247,7 +28856,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24255,7 +28864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24341,7 +28950,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24349,7 +28958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24425,7 +29034,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1F00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24433,7 +29042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24537,21 +29146,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense"/>
+    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -24564,11 +29173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24646,21 +29255,32 @@
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
       <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="19">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -24677,21 +29297,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -24704,10 +29324,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -24806,21 +29426,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -24833,7 +29453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24925,21 +29545,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense"/>
+    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -24952,7 +29572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25054,21 +29674,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -25081,7 +29701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25173,21 +29793,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense"/>
+    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/BoxScores.xlsx
+++ b/2024_2025/Playoffs/BoxScores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C0ED10-E6CC-4993-A85B-D3C1E506BC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="531">
   <si>
     <t>Carolina Hurricanes</t>
   </si>
@@ -1653,7 +1654,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -2214,7 +2215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2492,17 +2493,17 @@
     <mergeCell ref="A43:B43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores"/>
-    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores"/>
-    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores"/>
-    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores"/>
-    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores"/>
-    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores"/>
-    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores"/>
-    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores"/>
-    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores"/>
-    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores"/>
-    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores"/>
+    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2510,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2612,21 +2613,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2639,7 +2640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2741,21 +2742,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2768,7 +2769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,21 +2855,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2881,7 +2882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7477,11 +7478,11 @@
     <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A38:T55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:T55">
     <sortCondition ref="A38:A55"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7489,7 +7490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7705,7 +7706,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7713,7 +7714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:U130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14525,11 +14526,11 @@
     <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A75:T92">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:T92">
     <sortCondition ref="A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14537,7 +14538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14821,7 +14822,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14829,7 +14830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:U166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23914,42 +23915,18 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
     </row>
-    <row r="161" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-    </row>
-    <row r="162" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-    </row>
-    <row r="163" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-    </row>
-    <row r="164" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-    </row>
-    <row r="165" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-    </row>
-    <row r="166" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-    </row>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A75:T92">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:T92">
     <sortCondition ref="A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23957,7 +23934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24319,7 +24296,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24327,20 +24304,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="U110" sqref="U110"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="15" width="9.140625" style="1"/>
     <col min="16" max="18" width="9.140625" style="13"/>
     <col min="19" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -24409,9 +24388,7484 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>19</v>
+      </c>
+      <c r="P2" s="13">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0.49513888888888891</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>27</v>
+      </c>
+      <c r="P3" s="13">
+        <v>5.7638888888888892E-2</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>26</v>
+      </c>
+      <c r="P4" s="13">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0.66805555555555551</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>14</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>29</v>
+      </c>
+      <c r="P6" s="13">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0.12847222222222221</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>16</v>
+      </c>
+      <c r="P7" s="13">
+        <v>6.1111111111111109E-2</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>22</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>25</v>
+      </c>
+      <c r="P9" s="13">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>18</v>
+      </c>
+      <c r="P10" s="13">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>24</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>25</v>
+      </c>
+      <c r="P12" s="13">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="S12" s="1">
+        <v>10</v>
+      </c>
+      <c r="T12" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>21</v>
+      </c>
+      <c r="P13" s="13">
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>20</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.65208333333333335</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>23</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="S15" s="1">
+        <v>10</v>
+      </c>
+      <c r="T15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>24</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>19</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0.64375000000000004</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>18</v>
+      </c>
+      <c r="P18" s="13">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>15</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>26</v>
+      </c>
+      <c r="P20" s="13">
+        <v>8.4722222222222227E-2</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="S20" s="1">
+        <v>14</v>
+      </c>
+      <c r="T20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>27</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="R21" s="13">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="S21" s="1">
+        <v>6</v>
+      </c>
+      <c r="T21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>25</v>
+      </c>
+      <c r="P22" s="13">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>23</v>
+      </c>
+      <c r="P23" s="13">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>5</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>30</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0.1125</v>
+      </c>
+      <c r="R24" s="13">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>27</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>16</v>
+      </c>
+      <c r="P26" s="13">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>31</v>
+      </c>
+      <c r="P27" s="13">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>15</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>21</v>
+      </c>
+      <c r="P29" s="13">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>19</v>
+      </c>
+      <c r="P30" s="13">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13">
+        <v>0.39861111111111114</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>20</v>
+      </c>
+      <c r="P31" s="13">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>20</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="S32" s="1">
+        <v>7</v>
+      </c>
+      <c r="T32" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>5</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3</v>
+      </c>
+      <c r="O33" s="1">
+        <v>30</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>7</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>19</v>
+      </c>
+      <c r="P34" s="13">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>0</v>
+      </c>
+      <c r="R34" s="13">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="S34" s="1">
+        <v>4</v>
+      </c>
+      <c r="T34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>26</v>
+      </c>
+      <c r="P35" s="13">
+        <v>8.5416666666666669E-2</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R35" s="13">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="S35" s="1">
+        <v>2</v>
+      </c>
+      <c r="T35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2</v>
+      </c>
+      <c r="O36" s="1">
+        <v>33</v>
+      </c>
+      <c r="P36" s="13">
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="R36" s="13">
+        <v>0.80277777777777781</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>19</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>0</v>
+      </c>
+      <c r="R37" s="13">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>6</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>3</v>
+      </c>
+      <c r="O38" s="1">
+        <v>27</v>
+      </c>
+      <c r="P38" s="13">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>0.17569444444444443</v>
+      </c>
+      <c r="R38" s="13">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>5</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2</v>
+      </c>
+      <c r="O39" s="1">
+        <v>28</v>
+      </c>
+      <c r="P39" s="13">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="R39" s="13">
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>3</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>18</v>
+      </c>
+      <c r="P40" s="13">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>2.2916666666666665E-2</v>
+      </c>
+      <c r="R40" s="13">
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="S40" s="1">
+        <v>4</v>
+      </c>
+      <c r="T40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>6</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>23</v>
+      </c>
+      <c r="P41" s="13">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="R41" s="13">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>13</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>0</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3</v>
+      </c>
+      <c r="O43" s="1">
+        <v>29</v>
+      </c>
+      <c r="P43" s="13">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>6.1111111111111109E-2</v>
+      </c>
+      <c r="R43" s="13">
+        <v>0.78680555555555554</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>6</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>22</v>
+      </c>
+      <c r="P44" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="R44" s="13">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="S44" s="1">
+        <v>5</v>
+      </c>
+      <c r="T44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>25</v>
+      </c>
+      <c r="P45" s="13">
+        <v>0.20069444444444445</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="R45" s="13">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>7</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+      <c r="O46" s="1">
+        <v>27</v>
+      </c>
+      <c r="P46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="R46" s="13">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>16</v>
+      </c>
+      <c r="P47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="R47" s="13">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="S47" s="1">
+        <v>3</v>
+      </c>
+      <c r="T47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>5</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>15</v>
+      </c>
+      <c r="P48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="R48" s="13">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>3</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>3</v>
+      </c>
+      <c r="O49" s="1">
+        <v>25</v>
+      </c>
+      <c r="P49" s="13">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="R49" s="13">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="S49" s="1">
+        <v>15</v>
+      </c>
+      <c r="T49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>22</v>
+      </c>
+      <c r="P50" s="13">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="R50" s="13">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2</v>
+      </c>
+      <c r="L51" s="1">
+        <v>4</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>19</v>
+      </c>
+      <c r="P51" s="13">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Q51" s="13">
+        <v>0</v>
+      </c>
+      <c r="R51" s="13">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>19</v>
+      </c>
+      <c r="P52" s="13">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>0</v>
+      </c>
+      <c r="R52" s="13">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <v>2</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>18</v>
+      </c>
+      <c r="P53" s="13">
+        <v>0.20347222222222222</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="R53" s="13">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>21</v>
+      </c>
+      <c r="P54" s="13">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>0</v>
+      </c>
+      <c r="R54" s="13">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>4</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>16</v>
+      </c>
+      <c r="P55" s="13">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>0</v>
+      </c>
+      <c r="R55" s="13">
+        <v>0.42916666666666664</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>10</v>
+      </c>
+      <c r="P56" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>0</v>
+      </c>
+      <c r="R56" s="13">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="S56" s="1">
+        <v>1</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>2</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>2</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>3</v>
+      </c>
+      <c r="O57" s="1">
+        <v>35</v>
+      </c>
+      <c r="P57" s="13">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>0</v>
+      </c>
+      <c r="R57" s="14">
+        <v>1.0062500000000001</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>5</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>4</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>27</v>
+      </c>
+      <c r="P58" s="13">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>0</v>
+      </c>
+      <c r="R58" s="13">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="S58" s="1">
+        <v>1</v>
+      </c>
+      <c r="T58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>28</v>
+      </c>
+      <c r="P59" s="13">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>0</v>
+      </c>
+      <c r="R59" s="13">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="S59" s="1">
+        <v>5</v>
+      </c>
+      <c r="T59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>2</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>16</v>
+      </c>
+      <c r="P60" s="13">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>0</v>
+      </c>
+      <c r="R60" s="13">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>4</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>30</v>
+      </c>
+      <c r="P61" s="13">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>0</v>
+      </c>
+      <c r="R61" s="13">
+        <v>0.73402777777777772</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>5</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>27</v>
+      </c>
+      <c r="P62" s="13">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="Q62" s="13">
+        <v>0</v>
+      </c>
+      <c r="R62" s="13">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="S62" s="1">
+        <v>6</v>
+      </c>
+      <c r="T62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>26</v>
+      </c>
+      <c r="P63" s="13">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>0</v>
+      </c>
+      <c r="R63" s="13">
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>36</v>
+      </c>
+      <c r="P64" s="13">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="Q64" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R64" s="14">
+        <v>1</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>7</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>33</v>
+      </c>
+      <c r="P65" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>0</v>
+      </c>
+      <c r="R65" s="13">
+        <v>0.79791666666666672</v>
+      </c>
+      <c r="S65" s="1">
+        <v>1</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>2</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>12</v>
+      </c>
+      <c r="P66" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>0</v>
+      </c>
+      <c r="R66" s="13">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <v>27</v>
+      </c>
+      <c r="P67" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R67" s="13">
+        <v>0.82847222222222228</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1">
+        <v>21</v>
+      </c>
+      <c r="P68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>0</v>
+      </c>
+      <c r="R68" s="13">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>32</v>
+      </c>
+      <c r="P69" s="13">
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R69" s="13">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>1</v>
+      </c>
+      <c r="O70" s="1">
+        <v>32</v>
+      </c>
+      <c r="P70" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R70" s="13">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="S70" s="1">
+        <v>11</v>
+      </c>
+      <c r="T70" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1">
+        <v>3</v>
+      </c>
+      <c r="O71" s="1">
+        <v>33</v>
+      </c>
+      <c r="P71" s="13">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>0</v>
+      </c>
+      <c r="R71" s="14">
+        <v>1.0243055555555556</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>3</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>6</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>27</v>
+      </c>
+      <c r="P72" s="13">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>0</v>
+      </c>
+      <c r="R72" s="13">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="S72" s="1">
+        <v>2</v>
+      </c>
+      <c r="T72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>5</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>22</v>
+      </c>
+      <c r="P73" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>0</v>
+      </c>
+      <c r="R73" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <v>9</v>
+      </c>
+      <c r="P74" s="13">
+        <v>2.1527777777777778E-2</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>0</v>
+      </c>
+      <c r="R74" s="13">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="S74" s="1">
+        <v>1</v>
+      </c>
+      <c r="T74" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>23</v>
+      </c>
+      <c r="P75" s="13">
+        <v>0.1701388888888889</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="R75" s="13">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>26</v>
+      </c>
+      <c r="P76" s="13">
+        <v>0.17222222222222222</v>
+      </c>
+      <c r="Q76" s="13">
+        <v>0</v>
+      </c>
+      <c r="R76" s="13">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="S76" s="1">
+        <v>7</v>
+      </c>
+      <c r="T76" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>4</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>17</v>
+      </c>
+      <c r="P77" s="13">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>0</v>
+      </c>
+      <c r="R77" s="13">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>16</v>
+      </c>
+      <c r="P78" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q78" s="13">
+        <v>0</v>
+      </c>
+      <c r="R78" s="13">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>2</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
+        <v>2</v>
+      </c>
+      <c r="L79" s="1">
+        <v>2</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>2</v>
+      </c>
+      <c r="O79" s="1">
+        <v>23</v>
+      </c>
+      <c r="P79" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="13">
+        <v>3.8194444444444448E-2</v>
+      </c>
+      <c r="R79" s="13">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2</v>
+      </c>
+      <c r="H80" s="1">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1">
+        <v>2</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <v>23</v>
+      </c>
+      <c r="P80" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="13">
+        <v>3.1944444444444442E-2</v>
+      </c>
+      <c r="R80" s="13">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+      <c r="T80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <v>3</v>
+      </c>
+      <c r="M81" s="1">
+        <v>1</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>24</v>
+      </c>
+      <c r="P81" s="13">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="Q81" s="13">
+        <v>0</v>
+      </c>
+      <c r="R81" s="13">
+        <v>0.76458333333333328</v>
+      </c>
+      <c r="S81" s="1">
+        <v>1</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>20</v>
+      </c>
+      <c r="P82" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="R82" s="13">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>6</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1">
+        <v>3</v>
+      </c>
+      <c r="O83" s="1">
+        <v>21</v>
+      </c>
+      <c r="P83" s="13">
+        <v>0.17430555555555555</v>
+      </c>
+      <c r="Q83" s="13">
+        <v>3.8194444444444448E-2</v>
+      </c>
+      <c r="R83" s="13">
+        <v>0.55138888888888893</v>
+      </c>
+      <c r="S83" s="1">
+        <v>2</v>
+      </c>
+      <c r="T83" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
+        <v>4</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>1</v>
+      </c>
+      <c r="O84" s="1">
+        <v>14</v>
+      </c>
+      <c r="P84" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="13">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="R84" s="13">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="S84" s="1">
+        <v>5</v>
+      </c>
+      <c r="T84" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G85" s="1">
+        <v>3</v>
+      </c>
+      <c r="H85" s="1">
+        <v>6</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>6</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>24</v>
+      </c>
+      <c r="P85" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q85" s="13">
+        <v>0</v>
+      </c>
+      <c r="R85" s="13">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="S85" s="1">
+        <v>6</v>
+      </c>
+      <c r="T85" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+      <c r="O86" s="1">
+        <v>15</v>
+      </c>
+      <c r="P86" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="13">
+        <v>0</v>
+      </c>
+      <c r="R86" s="13">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
+        <v>4</v>
+      </c>
+      <c r="O87" s="1">
+        <v>25</v>
+      </c>
+      <c r="P87" s="13">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="Q87" s="13">
+        <v>0</v>
+      </c>
+      <c r="R87" s="13">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>1</v>
+      </c>
+      <c r="N88" s="1">
+        <v>1</v>
+      </c>
+      <c r="O88" s="1">
+        <v>25</v>
+      </c>
+      <c r="P88" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="13">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="R88" s="13">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="T88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>24</v>
+      </c>
+      <c r="P89" s="13">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="Q89" s="13">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="R89" s="13">
+        <v>0.70694444444444449</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>2</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>3</v>
+      </c>
+      <c r="O90" s="1">
+        <v>25</v>
+      </c>
+      <c r="P90" s="13">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="Q90" s="13">
+        <v>0</v>
+      </c>
+      <c r="R90" s="13">
+        <v>0.67152777777777772</v>
+      </c>
+      <c r="S90" s="1">
+        <v>2</v>
+      </c>
+      <c r="T90" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>17</v>
+      </c>
+      <c r="P91" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="13">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="R91" s="13">
+        <v>0.43263888888888891</v>
+      </c>
+      <c r="S91" s="1">
+        <v>1</v>
+      </c>
+      <c r="T91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1">
+        <v>3</v>
+      </c>
+      <c r="I92" s="1">
+        <v>4</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>2</v>
+      </c>
+      <c r="M92" s="1">
+        <v>1</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>29</v>
+      </c>
+      <c r="P92" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q92" s="13">
+        <v>0.14374999999999999</v>
+      </c>
+      <c r="R92" s="13">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="S92" s="1">
+        <v>15</v>
+      </c>
+      <c r="T92" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>5</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>15</v>
+      </c>
+      <c r="P93" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="13">
+        <v>0</v>
+      </c>
+      <c r="R93" s="13">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>4</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>1</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
+        <v>28</v>
+      </c>
+      <c r="P94" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="13">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="R94" s="13">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+      <c r="T94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+      <c r="K95" s="1">
+        <v>2</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1</v>
+      </c>
+      <c r="M95" s="1">
+        <v>1</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>21</v>
+      </c>
+      <c r="P95" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="13">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="R95" s="13">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+      <c r="T95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>2</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1">
+        <v>2</v>
+      </c>
+      <c r="L96" s="1">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>1</v>
+      </c>
+      <c r="O96" s="1">
+        <v>33</v>
+      </c>
+      <c r="P96" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="13">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="R96" s="13">
+        <v>0.76944444444444449</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+      <c r="T96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>3</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1</v>
+      </c>
+      <c r="O97" s="1">
+        <v>32</v>
+      </c>
+      <c r="P97" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="13">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="R97" s="13">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+      <c r="T97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>3</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1">
+        <v>23</v>
+      </c>
+      <c r="P98" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q98" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="R98" s="13">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="S98" s="1">
+        <v>7</v>
+      </c>
+      <c r="T98" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2</v>
+      </c>
+      <c r="I99" s="1">
+        <v>2</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>2</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1</v>
+      </c>
+      <c r="O99" s="1">
+        <v>28</v>
+      </c>
+      <c r="P99" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q99" s="13">
+        <v>5.0694444444444445E-2</v>
+      </c>
+      <c r="R99" s="13">
+        <v>0.74861111111111112</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+      <c r="T99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2</v>
+      </c>
+      <c r="H100" s="1">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>3</v>
+      </c>
+      <c r="M100" s="1">
+        <v>1</v>
+      </c>
+      <c r="N100" s="1">
+        <v>2</v>
+      </c>
+      <c r="O100" s="1">
+        <v>18</v>
+      </c>
+      <c r="P100" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="13">
+        <v>0</v>
+      </c>
+      <c r="R100" s="13">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="S100" s="1">
+        <v>5</v>
+      </c>
+      <c r="T100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1">
+        <v>3</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1">
+        <v>28</v>
+      </c>
+      <c r="P101" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q101" s="13">
+        <v>0.14444444444444443</v>
+      </c>
+      <c r="R101" s="13">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="S101" s="1">
+        <v>0</v>
+      </c>
+      <c r="T101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>3</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1">
+        <v>3</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>28</v>
+      </c>
+      <c r="P102" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="R102" s="13">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="S102" s="1">
+        <v>0</v>
+      </c>
+      <c r="T102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>2</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>2</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0</v>
+      </c>
+      <c r="M103" s="1">
+        <v>0</v>
+      </c>
+      <c r="N103" s="1">
+        <v>1</v>
+      </c>
+      <c r="O103" s="1">
+        <v>13</v>
+      </c>
+      <c r="P103" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="13">
+        <v>0</v>
+      </c>
+      <c r="R103" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="S103" s="1">
+        <v>1</v>
+      </c>
+      <c r="T103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1">
+        <v>2</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>0</v>
+      </c>
+      <c r="N104" s="1">
+        <v>0</v>
+      </c>
+      <c r="O104" s="1">
+        <v>33</v>
+      </c>
+      <c r="P104" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="13">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="R104" s="13">
+        <v>0.88680555555555551</v>
+      </c>
+      <c r="S104" s="1">
+        <v>0</v>
+      </c>
+      <c r="T104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1">
+        <v>3</v>
+      </c>
+      <c r="H105" s="1">
+        <v>2</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" s="1">
+        <v>2</v>
+      </c>
+      <c r="M105" s="1">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1">
+        <v>20</v>
+      </c>
+      <c r="P105" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="13">
+        <v>0</v>
+      </c>
+      <c r="R105" s="13">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="S105" s="1">
+        <v>0</v>
+      </c>
+      <c r="T105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>22</v>
+      </c>
+      <c r="P106" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="13">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="R106" s="13">
+        <v>0.47638888888888886</v>
+      </c>
+      <c r="S106" s="1">
+        <v>2</v>
+      </c>
+      <c r="T106" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>2</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>3</v>
+      </c>
+      <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>1</v>
+      </c>
+      <c r="O107" s="1">
+        <v>30</v>
+      </c>
+      <c r="P107" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="13">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="R107" s="13">
+        <v>0.76597222222222228</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="1">
+        <v>3</v>
+      </c>
+      <c r="M108" s="1">
+        <v>0</v>
+      </c>
+      <c r="N108" s="1">
+        <v>0</v>
+      </c>
+      <c r="O108" s="1">
+        <v>21</v>
+      </c>
+      <c r="P108" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="13">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="R108" s="13">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="S108" s="1">
+        <v>1</v>
+      </c>
+      <c r="T108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>3</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>2</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="1">
+        <v>1</v>
+      </c>
+      <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>25</v>
+      </c>
+      <c r="P109" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q109" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="R109" s="13">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="S109" s="1">
+        <v>0</v>
+      </c>
+      <c r="T109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+    </row>
+    <row r="113" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+    </row>
+    <row r="114" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+    </row>
+    <row r="115" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+    </row>
+    <row r="116" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+    </row>
+    <row r="117" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+    </row>
+    <row r="118" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+    </row>
+    <row r="119" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+    </row>
+    <row r="120" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+    </row>
+    <row r="121" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+    </row>
+    <row r="122" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+    </row>
+    <row r="123" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+    </row>
+    <row r="124" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+    </row>
+    <row r="125" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+    </row>
+    <row r="126" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+    </row>
+    <row r="127" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+    </row>
+    <row r="128" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+    </row>
+    <row r="129" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+    </row>
+    <row r="130" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+    </row>
+    <row r="131" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+    </row>
+    <row r="132" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+    </row>
+    <row r="133" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+    </row>
+    <row r="134" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+    </row>
+    <row r="135" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+    </row>
+    <row r="136" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+    </row>
+    <row r="137" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+    </row>
+    <row r="138" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+    </row>
+    <row r="139" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+    </row>
+    <row r="140" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+    </row>
+    <row r="141" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+    </row>
+    <row r="142" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+    </row>
+    <row r="143" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+    </row>
+    <row r="144" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+    </row>
+    <row r="145" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+    </row>
+    <row r="146" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+    </row>
+    <row r="147" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+    </row>
+    <row r="148" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+    </row>
+    <row r="149" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+    </row>
+    <row r="150" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+    </row>
+    <row r="151" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+    </row>
+    <row r="152" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+    </row>
+    <row r="153" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+    </row>
+    <row r="154" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+    </row>
+    <row r="155" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+    </row>
+    <row r="156" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+    </row>
+    <row r="157" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+    </row>
+    <row r="158" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+    </row>
+    <row r="159" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+    </row>
+    <row r="160" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+    </row>
+    <row r="161" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+    </row>
+    <row r="162" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+    </row>
+    <row r="163" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+    </row>
+    <row r="164" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+    </row>
+    <row r="165" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+    </row>
+    <row r="166" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+    </row>
+    <row r="167" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+    </row>
+    <row r="168" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+    </row>
+    <row r="169" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+    </row>
+    <row r="170" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+    </row>
+    <row r="171" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+    </row>
+    <row r="172" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+    </row>
+    <row r="173" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+    </row>
+    <row r="174" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+    </row>
+    <row r="175" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+    </row>
+    <row r="176" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+    </row>
+    <row r="177" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+    </row>
+    <row r="178" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+    </row>
+    <row r="179" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+    </row>
+    <row r="180" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+    </row>
+    <row r="181" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+    </row>
+    <row r="182" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+    </row>
+    <row r="183" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+    </row>
+    <row r="184" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+    </row>
+    <row r="185" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+    </row>
+    <row r="186" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+    </row>
+    <row r="187" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+    </row>
+    <row r="188" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+    </row>
+    <row r="189" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+    </row>
+    <row r="190" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+    </row>
+    <row r="191" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+    </row>
+    <row r="192" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+    </row>
+    <row r="193" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+    </row>
+    <row r="194" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+    </row>
+    <row r="195" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+    </row>
+    <row r="196" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+    </row>
+    <row r="197" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+    </row>
+    <row r="198" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+    </row>
+    <row r="199" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+    </row>
+    <row r="200" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+    </row>
+    <row r="201" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+    </row>
+    <row r="202" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+    </row>
+    <row r="203" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+    </row>
+    <row r="204" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+    </row>
+    <row r="205" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+    </row>
+    <row r="206" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+    </row>
+    <row r="207" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+    </row>
+    <row r="208" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+    </row>
+    <row r="209" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+    </row>
+    <row r="210" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+    </row>
+    <row r="211" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+    </row>
+    <row r="212" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+    </row>
+    <row r="213" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+    </row>
+    <row r="214" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+    </row>
+    <row r="215" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+    </row>
+    <row r="216" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+    </row>
+    <row r="217" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+    </row>
+    <row r="218" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+    </row>
+    <row r="219" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+    </row>
+    <row r="220" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+    </row>
+    <row r="221" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+    </row>
+    <row r="222" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+    </row>
+    <row r="223" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+    </row>
+    <row r="224" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+    </row>
+    <row r="225" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+    </row>
+    <row r="226" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+    </row>
+    <row r="227" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+    </row>
+    <row r="228" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+    </row>
+    <row r="229" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+    </row>
+    <row r="230" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+    </row>
+    <row r="231" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+    </row>
+    <row r="232" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R232" s="1"/>
+    </row>
+    <row r="233" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R233" s="1"/>
+    </row>
+    <row r="234" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R234" s="1"/>
+    </row>
+    <row r="235" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R235" s="1"/>
+    </row>
+    <row r="236" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R236" s="1"/>
+    </row>
+    <row r="237" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R237" s="1"/>
+    </row>
+    <row r="238" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R238" s="1"/>
+    </row>
+    <row r="239" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R239" s="1"/>
+    </row>
+    <row r="240" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R240" s="1"/>
+    </row>
+    <row r="241" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R241" s="1"/>
+    </row>
+    <row r="242" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R242" s="1"/>
+    </row>
+    <row r="243" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R243" s="1"/>
+    </row>
+    <row r="244" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R244" s="1"/>
+    </row>
+    <row r="245" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R245" s="1"/>
+    </row>
+    <row r="246" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R246" s="1"/>
+    </row>
+    <row r="247" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R247" s="1"/>
+    </row>
+    <row r="248" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R248" s="1"/>
+    </row>
+    <row r="249" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R249" s="1"/>
+    </row>
+    <row r="250" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R250" s="1"/>
+    </row>
+    <row r="251" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R251" s="1"/>
+    </row>
+    <row r="252" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R252" s="1"/>
+    </row>
+    <row r="253" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R253" s="1"/>
+    </row>
+    <row r="254" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R254" s="1"/>
+    </row>
+    <row r="255" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R255" s="1"/>
+    </row>
+    <row r="256" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R256" s="1"/>
+    </row>
+    <row r="257" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R257" s="1"/>
+    </row>
+    <row r="258" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R258" s="1"/>
+    </row>
+    <row r="259" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R259" s="1"/>
+    </row>
+    <row r="260" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R260" s="1"/>
+    </row>
+    <row r="261" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R261" s="1"/>
+    </row>
+    <row r="262" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R262" s="1"/>
+    </row>
+    <row r="263" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R263" s="1"/>
+    </row>
+    <row r="264" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R264" s="1"/>
+    </row>
+    <row r="265" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R265" s="1"/>
+    </row>
+    <row r="266" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R266" s="1"/>
+    </row>
+    <row r="267" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R267" s="1"/>
+    </row>
+    <row r="268" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R268" s="1"/>
+    </row>
+    <row r="269" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R269" s="1"/>
+    </row>
+    <row r="270" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R270" s="1"/>
+    </row>
+    <row r="271" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R271" s="1"/>
+    </row>
+    <row r="272" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R272" s="1"/>
+    </row>
+    <row r="273" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R273" s="1"/>
+    </row>
+    <row r="274" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R274" s="1"/>
+    </row>
+    <row r="275" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R275" s="1"/>
+    </row>
+    <row r="276" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R276" s="1"/>
+    </row>
+    <row r="277" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R277" s="1"/>
+    </row>
+    <row r="278" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R278" s="1"/>
+    </row>
+    <row r="279" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R279" s="1"/>
+    </row>
+    <row r="280" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R280" s="1"/>
+    </row>
+    <row r="281" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R281" s="1"/>
+    </row>
+    <row r="282" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R282" s="1"/>
+    </row>
+    <row r="283" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R283" s="1"/>
+    </row>
+    <row r="284" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R284" s="1"/>
+    </row>
+    <row r="285" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R285" s="1"/>
+    </row>
+    <row r="286" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R286" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T286">
+    <sortCondition ref="C2:C286"/>
+    <sortCondition ref="A2:A286"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24419,7 +31873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24647,7 +32101,7 @@
       <c r="M55" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="C2:C17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C17">
     <sortCondition ref="C2:C17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24655,7 +32109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27477,7 +34931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27534,26 +34988,236 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="14"/>
+      <c r="A2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2.4902777777777776</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="14"/>
+      <c r="A3" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="14"/>
+      <c r="A4" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2.6312500000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="14"/>
+      <c r="A5" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2.6312500000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="14"/>
+      <c r="A6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2.4812500000000002</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K7" s="14"/>
+      <c r="A7" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2.46875</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -27561,11 +35225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28047,7 +35711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28131,7 +35795,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -28139,7 +35803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28213,7 +35877,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -28221,7 +35885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28307,7 +35971,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -28315,7 +35979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28391,7 +36055,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -28399,7 +36063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28483,7 +36147,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -28491,7 +36155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28565,7 +36229,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -28573,7 +36237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28657,7 +36321,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -28665,7 +36329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28755,21 +36419,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense"/>
-    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -28782,7 +36446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28856,7 +36520,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -28864,7 +36528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28950,7 +36614,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -28958,7 +36622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29034,7 +36698,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -29042,7 +36706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29146,21 +36810,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense"/>
-    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -29173,7 +36837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29297,21 +36961,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -29324,11 +36988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29375,31 +37039,46 @@
       <c r="A3" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
       <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
       <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="19">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>6</v>
+      </c>
       <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -29426,21 +37105,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -29453,7 +37132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29545,21 +37224,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense"/>
-    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -29572,7 +37251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29674,21 +37353,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -29701,7 +37380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29793,21 +37472,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense"/>
-    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/BoxScores.xlsx
+++ b/2024_2025/Playoffs/BoxScores.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C0ED10-E6CC-4993-A85B-D3C1E506BC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -32,11 +31,11 @@
     <sheet name="Offense (4-21-25)" sheetId="17" r:id="rId17"/>
     <sheet name="Goalies (4-21-25)" sheetId="18" r:id="rId18"/>
     <sheet name="Offense (4-22-25)" sheetId="19" r:id="rId19"/>
-    <sheet name="Rosters (Offense - 24)" sheetId="10" r:id="rId20"/>
-    <sheet name="Goalies (4-22-25)" sheetId="20" r:id="rId21"/>
-    <sheet name="Rosters (Goalies - 3)" sheetId="11" r:id="rId22"/>
-    <sheet name="Offense (4-23-25)" sheetId="22" r:id="rId23"/>
-    <sheet name="Goalies (4-23-25)" sheetId="23" r:id="rId24"/>
+    <sheet name="Goalies (4-22-25)" sheetId="20" r:id="rId20"/>
+    <sheet name="Offense (4-23-25)" sheetId="22" r:id="rId21"/>
+    <sheet name="Rosters (Offense - 24)" sheetId="10" r:id="rId22"/>
+    <sheet name="Goalies (4-23-25)" sheetId="23" r:id="rId23"/>
+    <sheet name="Rosters (Goalies - 3)" sheetId="11" r:id="rId24"/>
     <sheet name="Offense (4-24-25)" sheetId="25" r:id="rId25"/>
     <sheet name="Goalies (4-24-25)" sheetId="26" r:id="rId26"/>
     <sheet name="Offense (4-25-25)" sheetId="28" r:id="rId27"/>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="531">
   <si>
     <t>Carolina Hurricanes</t>
   </si>
@@ -1654,7 +1653,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -2215,7 +2214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2493,17 +2492,17 @@
     <mergeCell ref="A43:B43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores"/>
+    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores"/>
+    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores"/>
+    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores"/>
+    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores"/>
+    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores"/>
+    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores"/>
+    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores"/>
+    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores"/>
+    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores"/>
+    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2511,7 +2510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2613,21 +2612,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2640,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2742,21 +2741,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2769,7 +2768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,21 +2854,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2882,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7478,11 +7477,11 @@
     <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:T55">
+  <sortState ref="A38:T55">
     <sortCondition ref="A38:A55"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7490,7 +7489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7706,7 +7705,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7714,7 +7713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14526,11 +14525,11 @@
     <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:T92">
+  <sortState ref="A75:T92">
     <sortCondition ref="A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14538,7 +14537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14822,7 +14821,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14830,7 +14829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23922,11 +23921,11 @@
     <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:T92">
+  <sortState ref="A75:T92">
     <sortCondition ref="A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23934,7 +23933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24296,7 +24295,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24304,12 +24303,10 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:U286"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U248"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="U110" sqref="U110"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31085,256 +31082,2308 @@
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>3</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1">
+        <v>3</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0</v>
+      </c>
+      <c r="M110" s="1">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1">
+        <v>4</v>
+      </c>
+      <c r="O110" s="1">
+        <v>29</v>
+      </c>
+      <c r="P110" s="13">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="Q110" s="13">
+        <v>0</v>
+      </c>
+      <c r="R110" s="14">
+        <v>1.086111111111111</v>
+      </c>
+      <c r="S110" s="1">
+        <v>0</v>
+      </c>
+      <c r="T110" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>2</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+      <c r="L111" s="1">
+        <v>2</v>
+      </c>
+      <c r="M111" s="1">
+        <v>2</v>
+      </c>
+      <c r="N111" s="1">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>20</v>
+      </c>
+      <c r="P111" s="13">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="Q111" s="13">
+        <v>0</v>
+      </c>
+      <c r="R111" s="13">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="S111" s="1">
+        <v>3</v>
+      </c>
+      <c r="T111" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-    </row>
-    <row r="113" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-    </row>
-    <row r="114" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-    </row>
-    <row r="115" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-    </row>
-    <row r="116" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-    </row>
-    <row r="117" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-    </row>
-    <row r="118" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-    </row>
-    <row r="119" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-    </row>
-    <row r="120" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-    </row>
-    <row r="121" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-    </row>
-    <row r="122" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-    </row>
-    <row r="123" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-    </row>
-    <row r="124" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-    </row>
-    <row r="125" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-    </row>
-    <row r="126" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-    </row>
-    <row r="127" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-    </row>
-    <row r="128" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
-      <c r="R128" s="1"/>
-    </row>
-    <row r="129" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-    </row>
-    <row r="130" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
-    </row>
-    <row r="131" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
-    </row>
-    <row r="132" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-    </row>
-    <row r="133" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-    </row>
-    <row r="134" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-    </row>
-    <row r="135" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-    </row>
-    <row r="136" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-    </row>
-    <row r="137" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-    </row>
-    <row r="138" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
-    </row>
-    <row r="139" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
-      <c r="R139" s="1"/>
-    </row>
-    <row r="140" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-    </row>
-    <row r="141" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
-      <c r="R141" s="1"/>
-    </row>
-    <row r="142" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-    </row>
-    <row r="143" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-    </row>
-    <row r="144" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-    </row>
-    <row r="145" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-    </row>
-    <row r="146" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>1</v>
+      </c>
+      <c r="O112" s="1">
+        <v>22</v>
+      </c>
+      <c r="P112" s="13">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="Q112" s="13">
+        <v>0</v>
+      </c>
+      <c r="R112" s="13">
+        <v>0.65625</v>
+      </c>
+      <c r="S112" s="1">
+        <v>0</v>
+      </c>
+      <c r="T112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>2</v>
+      </c>
+      <c r="I113" s="1">
+        <v>2</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>1</v>
+      </c>
+      <c r="M113" s="1">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>1</v>
+      </c>
+      <c r="O113" s="1">
+        <v>25</v>
+      </c>
+      <c r="P113" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="13">
+        <v>0</v>
+      </c>
+      <c r="R113" s="13">
+        <v>0.84513888888888899</v>
+      </c>
+      <c r="S113" s="1">
+        <v>0</v>
+      </c>
+      <c r="T113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>3</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>2</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>1</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>26</v>
+      </c>
+      <c r="P114" s="13">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="Q114" s="13">
+        <v>0</v>
+      </c>
+      <c r="R114" s="13">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="S114" s="1">
+        <v>0</v>
+      </c>
+      <c r="T114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>3</v>
+      </c>
+      <c r="G115" s="1">
+        <v>3</v>
+      </c>
+      <c r="H115" s="1">
+        <v>2</v>
+      </c>
+      <c r="I115" s="1">
+        <v>3</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L115" s="1">
+        <v>3</v>
+      </c>
+      <c r="M115" s="1">
+        <v>0</v>
+      </c>
+      <c r="N115" s="1">
+        <v>0</v>
+      </c>
+      <c r="O115" s="1">
+        <v>24</v>
+      </c>
+      <c r="P115" s="13">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="Q115" s="13">
+        <v>0</v>
+      </c>
+      <c r="R115" s="13">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="S115" s="1">
+        <v>7</v>
+      </c>
+      <c r="T115" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1">
+        <v>2</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>3</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>1</v>
+      </c>
+      <c r="M116" s="1">
+        <v>1</v>
+      </c>
+      <c r="N116" s="1">
+        <v>1</v>
+      </c>
+      <c r="O116" s="1">
+        <v>29</v>
+      </c>
+      <c r="P116" s="13">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="Q116" s="13">
+        <v>0</v>
+      </c>
+      <c r="R116" s="14">
+        <v>1.04375</v>
+      </c>
+      <c r="S116" s="1">
+        <v>0</v>
+      </c>
+      <c r="T116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>2</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0</v>
+      </c>
+      <c r="L117" s="1">
+        <v>2</v>
+      </c>
+      <c r="M117" s="1">
+        <v>0</v>
+      </c>
+      <c r="N117" s="1">
+        <v>0</v>
+      </c>
+      <c r="O117" s="1">
+        <v>10</v>
+      </c>
+      <c r="P117" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="13">
+        <v>0</v>
+      </c>
+      <c r="R117" s="13">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="S117" s="1">
+        <v>0</v>
+      </c>
+      <c r="T117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2</v>
+      </c>
+      <c r="G118" s="1">
+        <v>4</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1">
+        <v>4</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>2</v>
+      </c>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1">
+        <v>1</v>
+      </c>
+      <c r="O118" s="1">
+        <v>23</v>
+      </c>
+      <c r="P118" s="13">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="Q118" s="13">
+        <v>0</v>
+      </c>
+      <c r="R118" s="13">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="S118" s="1">
+        <v>0</v>
+      </c>
+      <c r="T118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0</v>
+      </c>
+      <c r="M119" s="1">
+        <v>0</v>
+      </c>
+      <c r="N119" s="1">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1">
+        <v>11</v>
+      </c>
+      <c r="P119" s="13">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="Q119" s="13">
+        <v>0</v>
+      </c>
+      <c r="R119" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="S119" s="1">
+        <v>2</v>
+      </c>
+      <c r="T119" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1">
+        <v>12</v>
+      </c>
+      <c r="M120" s="1">
+        <v>0</v>
+      </c>
+      <c r="N120" s="1">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>21</v>
+      </c>
+      <c r="P120" s="13">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="Q120" s="13">
+        <v>0</v>
+      </c>
+      <c r="R120" s="13">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="S120" s="1">
+        <v>0</v>
+      </c>
+      <c r="T120" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>2</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+      <c r="L121" s="1">
+        <v>2</v>
+      </c>
+      <c r="M121" s="1">
+        <v>1</v>
+      </c>
+      <c r="N121" s="1">
+        <v>0</v>
+      </c>
+      <c r="O121" s="1">
+        <v>19</v>
+      </c>
+      <c r="P121" s="13">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="Q121" s="13">
+        <v>0</v>
+      </c>
+      <c r="R121" s="13">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="S121" s="1">
+        <v>0</v>
+      </c>
+      <c r="T121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>1</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>2</v>
+      </c>
+      <c r="M122" s="1">
+        <v>1</v>
+      </c>
+      <c r="N122" s="1">
+        <v>1</v>
+      </c>
+      <c r="O122" s="1">
+        <v>18</v>
+      </c>
+      <c r="P122" s="13">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="Q122" s="13">
+        <v>0</v>
+      </c>
+      <c r="R122" s="13">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="S122" s="1">
+        <v>0</v>
+      </c>
+      <c r="T122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>3</v>
+      </c>
+      <c r="G123" s="1">
+        <v>2</v>
+      </c>
+      <c r="H123" s="1">
+        <v>2</v>
+      </c>
+      <c r="I123" s="1">
+        <v>2</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>1</v>
+      </c>
+      <c r="M123" s="1">
+        <v>1</v>
+      </c>
+      <c r="N123" s="1">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>23</v>
+      </c>
+      <c r="P123" s="13">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="Q123" s="13">
+        <v>0</v>
+      </c>
+      <c r="R123" s="13">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="S123" s="1">
+        <v>1</v>
+      </c>
+      <c r="T123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>3</v>
+      </c>
+      <c r="H124" s="1">
+        <v>3</v>
+      </c>
+      <c r="I124" s="1">
+        <v>2</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+      <c r="L124" s="1">
+        <v>2</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0</v>
+      </c>
+      <c r="N124" s="1">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>22</v>
+      </c>
+      <c r="P124" s="13">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="Q124" s="13">
+        <v>0</v>
+      </c>
+      <c r="R124" s="13">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="S124" s="1">
+        <v>8</v>
+      </c>
+      <c r="T124" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>4</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1">
+        <v>6</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0</v>
+      </c>
+      <c r="N125" s="1">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>14</v>
+      </c>
+      <c r="P125" s="13">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="Q125" s="13">
+        <v>0</v>
+      </c>
+      <c r="R125" s="13">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="S125" s="1">
+        <v>0</v>
+      </c>
+      <c r="T125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1">
+        <v>0</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>1</v>
+      </c>
+      <c r="N126" s="1">
+        <v>1</v>
+      </c>
+      <c r="O126" s="1">
+        <v>14</v>
+      </c>
+      <c r="P126" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="13">
+        <v>0</v>
+      </c>
+      <c r="R126" s="13">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="S126" s="1">
+        <v>0</v>
+      </c>
+      <c r="T126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>0</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1">
+        <v>2</v>
+      </c>
+      <c r="O127" s="1">
+        <v>15</v>
+      </c>
+      <c r="P127" s="13">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="Q127" s="13">
+        <v>0</v>
+      </c>
+      <c r="R127" s="13">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="S127" s="1">
+        <v>0</v>
+      </c>
+      <c r="T127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1">
+        <v>3</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0</v>
+      </c>
+      <c r="L128" s="1">
+        <v>2</v>
+      </c>
+      <c r="M128" s="1">
+        <v>0</v>
+      </c>
+      <c r="N128" s="1">
+        <v>1</v>
+      </c>
+      <c r="O128" s="1">
+        <v>25</v>
+      </c>
+      <c r="P128" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="13">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="R128" s="13">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="S128" s="1">
+        <v>0</v>
+      </c>
+      <c r="T128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G129" s="1">
+        <v>3</v>
+      </c>
+      <c r="H129" s="1">
+        <v>2</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0</v>
+      </c>
+      <c r="L129" s="1">
+        <v>1</v>
+      </c>
+      <c r="M129" s="1">
+        <v>0</v>
+      </c>
+      <c r="N129" s="1">
+        <v>0</v>
+      </c>
+      <c r="O129" s="1">
+        <v>18</v>
+      </c>
+      <c r="P129" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="13">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="R129" s="13">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="S129" s="1">
+        <v>1</v>
+      </c>
+      <c r="T129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>-4</v>
+      </c>
+      <c r="G130" s="1">
+        <v>3</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>1</v>
+      </c>
+      <c r="J130" s="1">
+        <v>1</v>
+      </c>
+      <c r="K130" s="1">
+        <v>2</v>
+      </c>
+      <c r="L130" s="1">
+        <v>1</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+      <c r="N130" s="1">
+        <v>2</v>
+      </c>
+      <c r="O130" s="1">
+        <v>24</v>
+      </c>
+      <c r="P130" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="13">
+        <v>0</v>
+      </c>
+      <c r="R130" s="13">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="S130" s="1">
+        <v>0</v>
+      </c>
+      <c r="T130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0</v>
+      </c>
+      <c r="L131" s="1">
+        <v>3</v>
+      </c>
+      <c r="M131" s="1">
+        <v>0</v>
+      </c>
+      <c r="N131" s="1">
+        <v>1</v>
+      </c>
+      <c r="O131" s="1">
+        <v>17</v>
+      </c>
+      <c r="P131" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="13">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="R131" s="13">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="S131" s="1">
+        <v>1</v>
+      </c>
+      <c r="T131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
+        <v>3</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+      <c r="L132" s="1">
+        <v>4</v>
+      </c>
+      <c r="M132" s="1">
+        <v>0</v>
+      </c>
+      <c r="N132" s="1">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1">
+        <v>18</v>
+      </c>
+      <c r="P132" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="13">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="R132" s="13">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="S132" s="1">
+        <v>1</v>
+      </c>
+      <c r="T132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>2</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1</v>
+      </c>
+      <c r="N133" s="1">
+        <v>1</v>
+      </c>
+      <c r="O133" s="1">
+        <v>22</v>
+      </c>
+      <c r="P133" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="13">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="R133" s="13">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="S133" s="1">
+        <v>7</v>
+      </c>
+      <c r="T133" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+      <c r="G134" s="1">
+        <v>1</v>
+      </c>
+      <c r="H134" s="1">
+        <v>4</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0</v>
+      </c>
+      <c r="L134" s="1">
+        <v>4</v>
+      </c>
+      <c r="M134" s="1">
+        <v>0</v>
+      </c>
+      <c r="N134" s="1">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>15</v>
+      </c>
+      <c r="P134" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="13">
+        <v>0</v>
+      </c>
+      <c r="R134" s="13">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="S134" s="1">
+        <v>0</v>
+      </c>
+      <c r="T134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>1</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+      <c r="L135" s="1">
+        <v>3</v>
+      </c>
+      <c r="M135" s="1">
+        <v>1</v>
+      </c>
+      <c r="N135" s="1">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>20</v>
+      </c>
+      <c r="P135" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="13">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="R135" s="13">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="S135" s="1">
+        <v>0</v>
+      </c>
+      <c r="T135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1">
+        <v>2</v>
+      </c>
+      <c r="H136" s="1">
+        <v>3</v>
+      </c>
+      <c r="I136" s="1">
+        <v>3</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0</v>
+      </c>
+      <c r="L136" s="1">
+        <v>3</v>
+      </c>
+      <c r="M136" s="1">
+        <v>0</v>
+      </c>
+      <c r="N136" s="1">
+        <v>3</v>
+      </c>
+      <c r="O136" s="1">
+        <v>24</v>
+      </c>
+      <c r="P136" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="13">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="R136" s="13">
+        <v>0.78125</v>
+      </c>
+      <c r="S136" s="1">
+        <v>0</v>
+      </c>
+      <c r="T136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1">
+        <v>2</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0</v>
+      </c>
+      <c r="L137" s="1">
+        <v>0</v>
+      </c>
+      <c r="M137" s="1">
+        <v>0</v>
+      </c>
+      <c r="N137" s="1">
+        <v>1</v>
+      </c>
+      <c r="O137" s="1">
+        <v>14</v>
+      </c>
+      <c r="P137" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="13">
+        <v>0</v>
+      </c>
+      <c r="R137" s="13">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="S137" s="1">
+        <v>2</v>
+      </c>
+      <c r="T137" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1">
+        <v>5</v>
+      </c>
+      <c r="H138" s="1">
+        <v>3</v>
+      </c>
+      <c r="I138" s="1">
+        <v>2</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0</v>
+      </c>
+      <c r="L138" s="1">
+        <v>3</v>
+      </c>
+      <c r="M138" s="1">
+        <v>1</v>
+      </c>
+      <c r="N138" s="1">
+        <v>2</v>
+      </c>
+      <c r="O138" s="1">
+        <v>27</v>
+      </c>
+      <c r="P138" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="13">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="R138" s="13">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="S138" s="1">
+        <v>0</v>
+      </c>
+      <c r="T138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G139" s="1">
+        <v>5</v>
+      </c>
+      <c r="H139" s="1">
+        <v>3</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1">
+        <v>0</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0</v>
+      </c>
+      <c r="L139" s="1">
+        <v>1</v>
+      </c>
+      <c r="M139" s="1">
+        <v>1</v>
+      </c>
+      <c r="N139" s="1">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>18</v>
+      </c>
+      <c r="P139" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="13">
+        <v>0</v>
+      </c>
+      <c r="R139" s="13">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="S139" s="1">
+        <v>0</v>
+      </c>
+      <c r="T139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>0</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>0</v>
+      </c>
+      <c r="M140" s="1">
+        <v>0</v>
+      </c>
+      <c r="N140" s="1">
+        <v>0</v>
+      </c>
+      <c r="O140" s="1">
+        <v>20</v>
+      </c>
+      <c r="P140" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="13">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="R140" s="13">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="S140" s="1">
+        <v>0</v>
+      </c>
+      <c r="T140" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1">
+        <v>-4</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>1</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0</v>
+      </c>
+      <c r="L141" s="1">
+        <v>0</v>
+      </c>
+      <c r="M141" s="1">
+        <v>1</v>
+      </c>
+      <c r="N141" s="1">
+        <v>2</v>
+      </c>
+      <c r="O141" s="1">
+        <v>22</v>
+      </c>
+      <c r="P141" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="13">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="R141" s="13">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="S141" s="1">
+        <v>0</v>
+      </c>
+      <c r="T141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G142" s="1">
+        <v>3</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>1</v>
+      </c>
+      <c r="M142" s="1">
+        <v>0</v>
+      </c>
+      <c r="N142" s="1">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>18</v>
+      </c>
+      <c r="P142" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="13">
+        <v>0</v>
+      </c>
+      <c r="R142" s="13">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="S142" s="1">
+        <v>14</v>
+      </c>
+      <c r="T142" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
+      <c r="G143" s="1">
+        <v>2</v>
+      </c>
+      <c r="H143" s="1">
+        <v>1</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0</v>
+      </c>
+      <c r="L143" s="1">
+        <v>1</v>
+      </c>
+      <c r="M143" s="1">
+        <v>0</v>
+      </c>
+      <c r="N143" s="1">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>19</v>
+      </c>
+      <c r="P143" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="13">
+        <v>0</v>
+      </c>
+      <c r="R143" s="13">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="S143" s="1">
+        <v>0</v>
+      </c>
+      <c r="T143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1">
+        <v>1</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0</v>
+      </c>
+      <c r="K144" s="1">
+        <v>0</v>
+      </c>
+      <c r="L144" s="1">
+        <v>0</v>
+      </c>
+      <c r="M144" s="1">
+        <v>1</v>
+      </c>
+      <c r="N144" s="1">
+        <v>1</v>
+      </c>
+      <c r="O144" s="1">
+        <v>20</v>
+      </c>
+      <c r="P144" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="13">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="R144" s="13">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="S144" s="1">
+        <v>4</v>
+      </c>
+      <c r="T144" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1">
+        <v>1</v>
+      </c>
+      <c r="I145" s="1">
+        <v>2</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>0</v>
+      </c>
+      <c r="L145" s="1">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1">
+        <v>0</v>
+      </c>
+      <c r="N145" s="1">
+        <v>1</v>
+      </c>
+      <c r="O145" s="1">
+        <v>22</v>
+      </c>
+      <c r="P145" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="13">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="R145" s="13">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="S145" s="1">
+        <v>0</v>
+      </c>
+      <c r="T145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
     </row>
-    <row r="147" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
     </row>
-    <row r="148" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
     </row>
-    <row r="149" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
     </row>
-    <row r="150" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
     </row>
-    <row r="151" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
     </row>
-    <row r="152" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
     </row>
-    <row r="153" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
     </row>
-    <row r="154" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
     </row>
-    <row r="155" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
     </row>
-    <row r="156" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
     </row>
-    <row r="157" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
     </row>
-    <row r="158" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
     </row>
-    <row r="159" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
     </row>
-    <row r="160" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
@@ -31505,220 +33554,144 @@
       <c r="R193" s="1"/>
     </row>
     <row r="194" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
     </row>
     <row r="195" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
     </row>
     <row r="196" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P196" s="1"/>
-      <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
     </row>
     <row r="197" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
     </row>
     <row r="198" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P198" s="1"/>
-      <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
     </row>
     <row r="199" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
     </row>
     <row r="200" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
     </row>
     <row r="201" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
     </row>
     <row r="202" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
     </row>
     <row r="203" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
     </row>
     <row r="204" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P204" s="1"/>
-      <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
     </row>
     <row r="205" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
     </row>
     <row r="206" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
     </row>
     <row r="207" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
     </row>
     <row r="208" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
     </row>
-    <row r="209" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
+    <row r="209" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R209" s="1"/>
     </row>
-    <row r="210" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
+    <row r="210" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R210" s="1"/>
     </row>
-    <row r="211" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
+    <row r="211" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R211" s="1"/>
     </row>
-    <row r="212" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
+    <row r="212" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R212" s="1"/>
     </row>
-    <row r="213" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
+    <row r="213" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R213" s="1"/>
     </row>
-    <row r="214" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
+    <row r="214" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R214" s="1"/>
     </row>
-    <row r="215" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
+    <row r="215" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R215" s="1"/>
     </row>
-    <row r="216" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
+    <row r="216" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R216" s="1"/>
     </row>
-    <row r="217" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
+    <row r="217" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R217" s="1"/>
     </row>
-    <row r="218" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
+    <row r="218" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R218" s="1"/>
     </row>
-    <row r="219" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
+    <row r="219" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R219" s="1"/>
     </row>
-    <row r="220" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
+    <row r="220" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R220" s="1"/>
     </row>
-    <row r="221" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
+    <row r="221" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R221" s="1"/>
     </row>
-    <row r="222" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
+    <row r="222" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R222" s="1"/>
     </row>
-    <row r="223" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
+    <row r="223" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R223" s="1"/>
     </row>
-    <row r="224" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
+    <row r="224" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R224" s="1"/>
     </row>
-    <row r="225" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
+    <row r="225" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R225" s="1"/>
     </row>
-    <row r="226" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
+    <row r="226" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R226" s="1"/>
     </row>
-    <row r="227" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
+    <row r="227" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R227" s="1"/>
     </row>
-    <row r="228" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
+    <row r="228" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R228" s="1"/>
     </row>
-    <row r="229" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
+    <row r="229" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R229" s="1"/>
     </row>
-    <row r="230" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
+    <row r="230" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R230" s="1"/>
     </row>
-    <row r="231" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
+    <row r="231" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R231" s="1"/>
     </row>
-    <row r="232" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R232" s="1"/>
     </row>
-    <row r="233" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R233" s="1"/>
     </row>
-    <row r="234" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R234" s="1"/>
     </row>
-    <row r="235" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R235" s="1"/>
     </row>
-    <row r="236" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R236" s="1"/>
     </row>
-    <row r="237" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R237" s="1"/>
     </row>
-    <row r="238" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R238" s="1"/>
     </row>
-    <row r="239" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R239" s="1"/>
     </row>
-    <row r="240" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R240" s="1"/>
     </row>
     <row r="241" spans="18:18" x14ac:dyDescent="0.25">
@@ -31745,127 +33718,12 @@
     <row r="248" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R248" s="1"/>
     </row>
-    <row r="249" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R249" s="1"/>
-    </row>
-    <row r="250" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R250" s="1"/>
-    </row>
-    <row r="251" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R251" s="1"/>
-    </row>
-    <row r="252" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R252" s="1"/>
-    </row>
-    <row r="253" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R253" s="1"/>
-    </row>
-    <row r="254" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R254" s="1"/>
-    </row>
-    <row r="255" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R255" s="1"/>
-    </row>
-    <row r="256" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R256" s="1"/>
-    </row>
-    <row r="257" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R257" s="1"/>
-    </row>
-    <row r="258" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R258" s="1"/>
-    </row>
-    <row r="259" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R259" s="1"/>
-    </row>
-    <row r="260" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R260" s="1"/>
-    </row>
-    <row r="261" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R261" s="1"/>
-    </row>
-    <row r="262" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R262" s="1"/>
-    </row>
-    <row r="263" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R263" s="1"/>
-    </row>
-    <row r="264" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R264" s="1"/>
-    </row>
-    <row r="265" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R265" s="1"/>
-    </row>
-    <row r="266" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R266" s="1"/>
-    </row>
-    <row r="267" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R267" s="1"/>
-    </row>
-    <row r="268" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R268" s="1"/>
-    </row>
-    <row r="269" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R269" s="1"/>
-    </row>
-    <row r="270" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R270" s="1"/>
-    </row>
-    <row r="271" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R271" s="1"/>
-    </row>
-    <row r="272" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R272" s="1"/>
-    </row>
-    <row r="273" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R273" s="1"/>
-    </row>
-    <row r="274" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R274" s="1"/>
-    </row>
-    <row r="275" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R275" s="1"/>
-    </row>
-    <row r="276" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R276" s="1"/>
-    </row>
-    <row r="277" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R277" s="1"/>
-    </row>
-    <row r="278" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R278" s="1"/>
-    </row>
-    <row r="279" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R279" s="1"/>
-    </row>
-    <row r="280" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R280" s="1"/>
-    </row>
-    <row r="281" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R281" s="1"/>
-    </row>
-    <row r="282" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R282" s="1"/>
-    </row>
-    <row r="283" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R283" s="1"/>
-    </row>
-    <row r="284" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R284" s="1"/>
-    </row>
-    <row r="285" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R285" s="1"/>
-    </row>
-    <row r="286" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R286" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T286">
-    <sortCondition ref="C2:C286"/>
-    <sortCondition ref="A2:A286"/>
+  <sortState ref="A111:V128">
+    <sortCondition ref="A111"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -31873,7 +33731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32101,7 +33959,7 @@
       <c r="M55" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C17">
+  <sortState ref="C2:C17">
     <sortCondition ref="C2:C17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32109,7 +33967,467 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2.4902777777777776</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2.6312500000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2.6312500000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2.4812500000000002</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2.46875</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>2.442361111111111</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="13"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34930,8 +37248,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34988,248 +37306,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="14">
-        <v>2.4902777777777776</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>2.6312500000000001</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14">
-        <v>2.6312500000000001</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <v>2.4812500000000002</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>2.46875</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
+      <c r="K7" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35710,182 +37818,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="13"/>
-    <col min="19" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K7" s="14"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35971,7 +37905,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -35979,7 +37913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36055,7 +37989,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -36063,7 +37997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36147,7 +38081,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -36155,7 +38089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36229,7 +38163,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -36237,7 +38171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36321,7 +38255,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1C00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -36329,7 +38263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36419,21 +38353,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense"/>
+    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -36446,7 +38380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36520,7 +38454,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -36528,7 +38462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36614,7 +38548,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -36622,7 +38556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36698,7 +38632,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1F00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -36706,7 +38640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36810,21 +38744,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense"/>
+    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -36837,7 +38771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36961,21 +38895,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -36988,11 +38922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37084,11 +39018,15 @@
       <c r="A6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -37105,21 +39043,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -37132,10 +39070,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -37224,21 +39162,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense"/>
+    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -37251,7 +39189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37353,21 +39291,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -37380,7 +39318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37472,21 +39410,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense"/>
+    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/BoxScores.xlsx
+++ b/2024_2025/Playoffs/BoxScores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593FE4C1-5FE7-47F8-BD3C-9A42697C9E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B7BB9E-F945-41B4-B693-E3FFAB6A58DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4838" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5186" uniqueCount="538">
   <si>
     <t>Carolina Hurricanes</t>
   </si>
@@ -2723,7 +2723,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,31 +2770,43 @@
       <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
       <c r="C3" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="19">
+        <v>5</v>
+      </c>
       <c r="C4" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>5</v>
+      </c>
       <c r="C5" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -68843,36 +68855,12 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
     </row>
-    <row r="161" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-    </row>
-    <row r="162" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-    </row>
-    <row r="163" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-    </row>
-    <row r="164" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-    </row>
-    <row r="165" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-    </row>
-    <row r="166" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-    </row>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A110:T127">
     <sortCondition ref="A110:A127"/>
@@ -69295,19 +69283,21 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U251"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="U110" sqref="U110"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="15" width="9.140625" style="1"/>
     <col min="16" max="18" width="9.140625" style="13"/>
     <col min="19" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.28515625" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -69376,7 +69366,7377 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>25</v>
+      </c>
+      <c r="P2" s="13">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>0</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>30</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>30</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0.92152777777777772</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>20</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>29</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0.75138888888888888</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>24</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>31</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>19</v>
+      </c>
+      <c r="P9" s="13">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>26</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>25</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="S11" s="1">
+        <v>18</v>
+      </c>
+      <c r="T11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>23</v>
+      </c>
+      <c r="P12" s="13">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>21</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>24</v>
+      </c>
+      <c r="P14" s="13">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>26</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="S15" s="1">
+        <v>11</v>
+      </c>
+      <c r="T15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>23</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>23</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>20</v>
+      </c>
+      <c r="P18" s="13">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>22</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>18</v>
+      </c>
+      <c r="P20" s="13">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>19</v>
+      </c>
+      <c r="P21" s="13">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="R21" s="13">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>18</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>20</v>
+      </c>
+      <c r="P23" s="13">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>21</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R24" s="13">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="S24" s="1">
+        <v>5</v>
+      </c>
+      <c r="T24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>20</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0.60972222222222228</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>20</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0.35138888888888886</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>10</v>
+      </c>
+      <c r="P27" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0.26319444444444445</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>2</v>
+      </c>
+      <c r="O28" s="1">
+        <v>18</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1">
+        <v>22</v>
+      </c>
+      <c r="P29" s="13">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="R29" s="13">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="S29" s="1">
+        <v>8</v>
+      </c>
+      <c r="T29" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>20</v>
+      </c>
+      <c r="P30" s="13">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0.20347222222222222</v>
+      </c>
+      <c r="R30" s="13">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>6</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>22</v>
+      </c>
+      <c r="P31" s="13">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="R31" s="13">
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>20</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>0</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>27</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0.85972222222222228</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>25</v>
+      </c>
+      <c r="P34" s="13">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R34" s="13">
+        <v>0.72291666666666665</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>25</v>
+      </c>
+      <c r="P35" s="13">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="R35" s="13">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2</v>
+      </c>
+      <c r="O36" s="1">
+        <v>20</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0.23402777777777778</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="R36" s="13">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="S36" s="1">
+        <v>7</v>
+      </c>
+      <c r="T36" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>8</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>0</v>
+      </c>
+      <c r="R37" s="13">
+        <v>0.23125000000000001</v>
+      </c>
+      <c r="S37" s="1">
+        <v>3</v>
+      </c>
+      <c r="T37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>28</v>
+      </c>
+      <c r="P38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>0.18819444444444444</v>
+      </c>
+      <c r="R38" s="13">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1">
+        <v>31</v>
+      </c>
+      <c r="P39" s="13">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="R39" s="13">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>22</v>
+      </c>
+      <c r="P40" s="13">
+        <v>3.8194444444444448E-2</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="R40" s="13">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="S40" s="1">
+        <v>5</v>
+      </c>
+      <c r="T40" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>27</v>
+      </c>
+      <c r="P41" s="13">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>0.10277777777777777</v>
+      </c>
+      <c r="R41" s="13">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="S41" s="1">
+        <v>2</v>
+      </c>
+      <c r="T41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>14</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>0</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0.36527777777777776</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>4</v>
+      </c>
+      <c r="L43" s="1">
+        <v>3</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2</v>
+      </c>
+      <c r="O43" s="1">
+        <v>30</v>
+      </c>
+      <c r="P43" s="13">
+        <v>0.10208333333333333</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>2.5694444444444443E-2</v>
+      </c>
+      <c r="R43" s="13">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>5</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>23</v>
+      </c>
+      <c r="P44" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="R44" s="13">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="S44" s="1">
+        <v>5</v>
+      </c>
+      <c r="T44" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2</v>
+      </c>
+      <c r="O45" s="1">
+        <v>25</v>
+      </c>
+      <c r="P45" s="13">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="R45" s="13">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>28</v>
+      </c>
+      <c r="P46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="R46" s="13">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>14</v>
+      </c>
+      <c r="P47" s="13">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>0</v>
+      </c>
+      <c r="R47" s="13">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="S47" s="1">
+        <v>4</v>
+      </c>
+      <c r="T47" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>14</v>
+      </c>
+      <c r="P48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>0</v>
+      </c>
+      <c r="R48" s="13">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>2</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>30</v>
+      </c>
+      <c r="P49" s="13">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>0.10277777777777777</v>
+      </c>
+      <c r="R49" s="13">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="S49" s="1">
+        <v>13</v>
+      </c>
+      <c r="T49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>25</v>
+      </c>
+      <c r="P50" s="13">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>0</v>
+      </c>
+      <c r="R50" s="13">
+        <v>0.59375</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>19</v>
+      </c>
+      <c r="P51" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="Q51" s="13">
+        <v>0</v>
+      </c>
+      <c r="R51" s="13">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>23</v>
+      </c>
+      <c r="P52" s="13">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="R52" s="13">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>10</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>19</v>
+      </c>
+      <c r="P53" s="13">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="R53" s="13">
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>3</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>24</v>
+      </c>
+      <c r="P54" s="13">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>0</v>
+      </c>
+      <c r="R54" s="13">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1">
+        <v>15</v>
+      </c>
+      <c r="P55" s="13">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>0</v>
+      </c>
+      <c r="R55" s="13">
+        <v>0.38263888888888886</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>3</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>16</v>
+      </c>
+      <c r="P56" s="13">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>0</v>
+      </c>
+      <c r="R56" s="13">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>5</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>21</v>
+      </c>
+      <c r="P57" s="13">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>4.583333333333333E-2</v>
+      </c>
+      <c r="R57" s="13">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>23</v>
+      </c>
+      <c r="P58" s="13">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>0</v>
+      </c>
+      <c r="R58" s="13">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="S58" s="1">
+        <v>7</v>
+      </c>
+      <c r="T58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1">
+        <v>25</v>
+      </c>
+      <c r="P59" s="13">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>4.2361111111111113E-2</v>
+      </c>
+      <c r="R59" s="13">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>4</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>3</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>28</v>
+      </c>
+      <c r="P60" s="13">
+        <v>5.7638888888888892E-2</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="R60" s="13">
+        <v>0.70277777777777772</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>3</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>23</v>
+      </c>
+      <c r="P61" s="13">
+        <v>0.10625</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>0</v>
+      </c>
+      <c r="R61" s="13">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <v>24</v>
+      </c>
+      <c r="P62" s="13">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="Q62" s="13">
+        <v>0</v>
+      </c>
+      <c r="R62" s="13">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>23</v>
+      </c>
+      <c r="P63" s="13">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>0</v>
+      </c>
+      <c r="R63" s="13">
+        <v>0.53125</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>6</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1">
+        <v>3</v>
+      </c>
+      <c r="O64" s="1">
+        <v>28</v>
+      </c>
+      <c r="P64" s="13">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="Q64" s="13">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="R64" s="13">
+        <v>0.75416666666666665</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>3</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <v>10</v>
+      </c>
+      <c r="L65" s="1">
+        <v>5</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>18</v>
+      </c>
+      <c r="P65" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="R65" s="13">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1">
+        <v>22</v>
+      </c>
+      <c r="P66" s="13">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>0</v>
+      </c>
+      <c r="R66" s="13">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>2</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>3</v>
+      </c>
+      <c r="O67" s="1">
+        <v>24</v>
+      </c>
+      <c r="P67" s="13">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="R67" s="13">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="S67" s="1">
+        <v>3</v>
+      </c>
+      <c r="T67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1">
+        <v>2</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1">
+        <v>24</v>
+      </c>
+      <c r="P68" s="13">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="R68" s="13">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="S68" s="1">
+        <v>1</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>2</v>
+      </c>
+      <c r="O69" s="1">
+        <v>24</v>
+      </c>
+      <c r="P69" s="13">
+        <v>5.0694444444444445E-2</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="R69" s="13">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>3</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>2</v>
+      </c>
+      <c r="O70" s="1">
+        <v>22</v>
+      </c>
+      <c r="P70" s="13">
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>4.583333333333333E-2</v>
+      </c>
+      <c r="R70" s="13">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="S70" s="1">
+        <v>6</v>
+      </c>
+      <c r="T70" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>4</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>2</v>
+      </c>
+      <c r="O71" s="1">
+        <v>25</v>
+      </c>
+      <c r="P71" s="13">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="R71" s="13">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S71" s="1">
+        <v>10</v>
+      </c>
+      <c r="T71" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>2</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <v>2</v>
+      </c>
+      <c r="L72" s="1">
+        <v>2</v>
+      </c>
+      <c r="M72" s="1">
+        <v>2</v>
+      </c>
+      <c r="N72" s="1">
+        <v>2</v>
+      </c>
+      <c r="O72" s="1">
+        <v>21</v>
+      </c>
+      <c r="P72" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>4.583333333333333E-2</v>
+      </c>
+      <c r="R72" s="13">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>10</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>17</v>
+      </c>
+      <c r="P73" s="13">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>0</v>
+      </c>
+      <c r="R73" s="13">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>2</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <v>2</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1">
+        <v>21</v>
+      </c>
+      <c r="P74" s="13">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>0</v>
+      </c>
+      <c r="R74" s="13">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>14</v>
+      </c>
+      <c r="P75" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="R75" s="13">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>15</v>
+      </c>
+      <c r="P76" s="13">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="Q76" s="13">
+        <v>0</v>
+      </c>
+      <c r="R76" s="13">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>17</v>
+      </c>
+      <c r="P77" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>0</v>
+      </c>
+      <c r="R77" s="13">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>5</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>20</v>
+      </c>
+      <c r="P78" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="13">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="R78" s="13">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>28</v>
+      </c>
+      <c r="P79" s="13">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q79" s="13">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="R79" s="13">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="S79" s="1">
+        <v>2</v>
+      </c>
+      <c r="T79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1">
+        <v>22</v>
+      </c>
+      <c r="P80" s="13">
+        <v>0.27361111111111114</v>
+      </c>
+      <c r="Q80" s="13">
+        <v>0</v>
+      </c>
+      <c r="R80" s="13">
+        <v>0.49375000000000002</v>
+      </c>
+      <c r="S80" s="1">
+        <v>10</v>
+      </c>
+      <c r="T80" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>3</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>2</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1">
+        <v>2</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>28</v>
+      </c>
+      <c r="P81" s="13">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="Q81" s="13">
+        <v>0</v>
+      </c>
+      <c r="R81" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1</v>
+      </c>
+      <c r="K82" s="1">
+        <v>2</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>28</v>
+      </c>
+      <c r="P82" s="13">
+        <v>0.25763888888888886</v>
+      </c>
+      <c r="Q82" s="13">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="R82" s="13">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>2</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1">
+        <v>13</v>
+      </c>
+      <c r="P83" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="13">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="R83" s="13">
+        <v>0.37569444444444444</v>
+      </c>
+      <c r="S83" s="1">
+        <v>5</v>
+      </c>
+      <c r="T83" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
+        <v>4</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>22</v>
+      </c>
+      <c r="P84" s="13">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="Q84" s="13">
+        <v>0.20208333333333334</v>
+      </c>
+      <c r="R84" s="13">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1">
+        <v>2</v>
+      </c>
+      <c r="L85" s="1">
+        <v>1</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>19</v>
+      </c>
+      <c r="P85" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="13">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="R85" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="S85" s="1">
+        <v>7</v>
+      </c>
+      <c r="T85" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>3</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>25</v>
+      </c>
+      <c r="P86" s="13">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="Q86" s="13">
+        <v>0</v>
+      </c>
+      <c r="R86" s="13">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="S86" s="1">
+        <v>11</v>
+      </c>
+      <c r="T86" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>3</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>21</v>
+      </c>
+      <c r="P87" s="13">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="Q87" s="13">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="R87" s="13">
+        <v>0.66805555555555551</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>2</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1">
+        <v>1</v>
+      </c>
+      <c r="O88" s="1">
+        <v>12</v>
+      </c>
+      <c r="P88" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="13">
+        <v>0</v>
+      </c>
+      <c r="R88" s="13">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="T88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>2</v>
+      </c>
+      <c r="M89" s="1">
+        <v>2</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>13</v>
+      </c>
+      <c r="P89" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="13">
+        <v>0</v>
+      </c>
+      <c r="R89" s="13">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>3</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>6</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>3</v>
+      </c>
+      <c r="O90" s="1">
+        <v>24</v>
+      </c>
+      <c r="P90" s="13">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="Q90" s="13">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="R90" s="13">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+      <c r="T90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>19</v>
+      </c>
+      <c r="P91" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="13">
+        <v>0.10625</v>
+      </c>
+      <c r="R91" s="13">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+      <c r="T91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>3</v>
+      </c>
+      <c r="K92" s="1">
+        <v>14</v>
+      </c>
+      <c r="L92" s="1">
+        <v>6</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>25</v>
+      </c>
+      <c r="P92" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="13">
+        <v>4.583333333333333E-2</v>
+      </c>
+      <c r="R92" s="13">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="S92" s="1">
+        <v>13</v>
+      </c>
+      <c r="T92" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>4</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>20</v>
+      </c>
+      <c r="P93" s="13">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="Q93" s="13">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="R93" s="13">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>3</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>2</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1</v>
+      </c>
+      <c r="O94" s="1">
+        <v>20</v>
+      </c>
+      <c r="P94" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="13">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="R94" s="13">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+      <c r="T94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>3</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>2</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>1</v>
+      </c>
+      <c r="O95" s="1">
+        <v>20</v>
+      </c>
+      <c r="P95" s="13">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="Q95" s="13">
+        <v>0</v>
+      </c>
+      <c r="R95" s="13">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+      <c r="T95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1">
+        <v>15</v>
+      </c>
+      <c r="P96" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="13">
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="R96" s="13">
+        <v>0.34444444444444444</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+      <c r="T96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G97" s="1">
+        <v>3</v>
+      </c>
+      <c r="H97" s="1">
+        <v>2</v>
+      </c>
+      <c r="I97" s="1">
+        <v>4</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>4</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>2</v>
+      </c>
+      <c r="O97" s="1">
+        <v>30</v>
+      </c>
+      <c r="P97" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="13">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="R97" s="13">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+      <c r="T97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>2</v>
+      </c>
+      <c r="O98" s="1">
+        <v>27</v>
+      </c>
+      <c r="P98" s="13">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="Q98" s="13">
+        <v>0.12777777777777777</v>
+      </c>
+      <c r="R98" s="13">
+        <v>0.85555555555555551</v>
+      </c>
+      <c r="S98" s="1">
+        <v>0</v>
+      </c>
+      <c r="T98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="1">
+        <v>2</v>
+      </c>
+      <c r="O99" s="1">
+        <v>19</v>
+      </c>
+      <c r="P99" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="13">
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="R99" s="13">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+      <c r="T99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>4</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0</v>
+      </c>
+      <c r="N100" s="1">
+        <v>1</v>
+      </c>
+      <c r="O100" s="1">
+        <v>15</v>
+      </c>
+      <c r="P100" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="13">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="R100" s="13">
+        <v>0.41388888888888886</v>
+      </c>
+      <c r="S100" s="1">
+        <v>1</v>
+      </c>
+      <c r="T100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G101" s="1">
+        <v>3</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" s="1">
+        <v>1</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1">
+        <v>28</v>
+      </c>
+      <c r="P101" s="13">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="Q101" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="R101" s="13">
+        <v>0.81458333333333333</v>
+      </c>
+      <c r="S101" s="1">
+        <v>0</v>
+      </c>
+      <c r="T101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>2</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>1</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>20</v>
+      </c>
+      <c r="P102" s="13">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="Q102" s="13">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="R102" s="13">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="S102" s="1">
+        <v>0</v>
+      </c>
+      <c r="T102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>2</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>10</v>
+      </c>
+      <c r="L103" s="1">
+        <v>2</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1">
+        <v>2</v>
+      </c>
+      <c r="O103" s="1">
+        <v>20</v>
+      </c>
+      <c r="P103" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R103" s="13">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="S103" s="1">
+        <v>0</v>
+      </c>
+      <c r="T103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>0</v>
+      </c>
+      <c r="N104" s="1">
+        <v>2</v>
+      </c>
+      <c r="O104" s="1">
+        <v>18</v>
+      </c>
+      <c r="P104" s="13">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="Q104" s="13">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="R104" s="13">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="S104" s="1">
+        <v>9</v>
+      </c>
+      <c r="T104" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>4</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1">
+        <v>10</v>
+      </c>
+      <c r="L105" s="1">
+        <v>2</v>
+      </c>
+      <c r="M105" s="1">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1">
+        <v>22</v>
+      </c>
+      <c r="P105" s="13">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="Q105" s="13">
+        <v>0</v>
+      </c>
+      <c r="R105" s="13">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="S105" s="1">
+        <v>0</v>
+      </c>
+      <c r="T105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>4</v>
+      </c>
+      <c r="H106" s="1">
+        <v>3</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>4</v>
+      </c>
+      <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>25</v>
+      </c>
+      <c r="P106" s="13">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="Q106" s="13">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="R106" s="13">
+        <v>0.59375</v>
+      </c>
+      <c r="S106" s="1">
+        <v>2</v>
+      </c>
+      <c r="T106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>5</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>3</v>
+      </c>
+      <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1">
+        <v>29</v>
+      </c>
+      <c r="P107" s="13">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="Q107" s="13">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="R107" s="13">
+        <v>0.75416666666666665</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G108" s="1">
+        <v>3</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="1">
+        <v>4</v>
+      </c>
+      <c r="M108" s="1">
+        <v>0</v>
+      </c>
+      <c r="N108" s="1">
+        <v>0</v>
+      </c>
+      <c r="O108" s="1">
+        <v>20</v>
+      </c>
+      <c r="P108" s="13">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="Q108" s="13">
+        <v>0</v>
+      </c>
+      <c r="R108" s="13">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="S108" s="1">
+        <v>0</v>
+      </c>
+      <c r="T108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>3</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1">
+        <v>2</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>22</v>
+      </c>
+      <c r="P109" s="13">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="Q109" s="13">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="R109" s="13">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="S109" s="1">
+        <v>3</v>
+      </c>
+      <c r="T109" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+    </row>
+    <row r="113" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+    </row>
+    <row r="114" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+    </row>
+    <row r="115" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+    </row>
+    <row r="116" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+    </row>
+    <row r="117" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+    </row>
+    <row r="118" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+    </row>
+    <row r="119" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+    </row>
+    <row r="120" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+    </row>
+    <row r="121" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+    </row>
+    <row r="122" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+    </row>
+    <row r="123" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+    </row>
+    <row r="124" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+    </row>
+    <row r="125" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+    </row>
+    <row r="126" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+    </row>
+    <row r="127" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+    </row>
+    <row r="128" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+    </row>
+    <row r="129" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+    </row>
+    <row r="130" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+    </row>
+    <row r="131" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+    </row>
+    <row r="132" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+    </row>
+    <row r="133" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+    </row>
+    <row r="134" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+    </row>
+    <row r="135" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+    </row>
+    <row r="136" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+    </row>
+    <row r="137" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+    </row>
+    <row r="138" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+    </row>
+    <row r="139" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+    </row>
+    <row r="140" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+    </row>
+    <row r="141" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+    </row>
+    <row r="142" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+    </row>
+    <row r="143" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+    </row>
+    <row r="144" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+    </row>
+    <row r="145" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+    </row>
+    <row r="146" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+    </row>
+    <row r="147" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+    </row>
+    <row r="148" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+    </row>
+    <row r="149" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+    </row>
+    <row r="150" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+    </row>
+    <row r="151" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+    </row>
+    <row r="152" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+    </row>
+    <row r="153" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+    </row>
+    <row r="154" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+    </row>
+    <row r="155" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+    </row>
+    <row r="156" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+    </row>
+    <row r="157" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+    </row>
+    <row r="158" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+    </row>
+    <row r="159" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+    </row>
+    <row r="160" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+    </row>
+    <row r="161" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+    </row>
+    <row r="162" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+    </row>
+    <row r="163" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+    </row>
+    <row r="164" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+    </row>
+    <row r="165" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+    </row>
+    <row r="166" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+    </row>
+    <row r="167" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+    </row>
+    <row r="168" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+    </row>
+    <row r="169" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+    </row>
+    <row r="170" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+    </row>
+    <row r="171" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+    </row>
+    <row r="172" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+    </row>
+    <row r="173" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+    </row>
+    <row r="174" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+    </row>
+    <row r="175" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+    </row>
+    <row r="176" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+    </row>
+    <row r="177" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+    </row>
+    <row r="178" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+    </row>
+    <row r="179" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+    </row>
+    <row r="180" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+    </row>
+    <row r="181" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+    </row>
+    <row r="182" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+    </row>
+    <row r="183" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+    </row>
+    <row r="184" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+    </row>
+    <row r="185" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+    </row>
+    <row r="186" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+    </row>
+    <row r="187" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+    </row>
+    <row r="188" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+    </row>
+    <row r="189" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+    </row>
+    <row r="190" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+    </row>
+    <row r="191" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+    </row>
+    <row r="192" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+    </row>
+    <row r="193" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+    </row>
+    <row r="194" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+    </row>
+    <row r="195" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+    </row>
+    <row r="196" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+    </row>
+    <row r="197" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+    </row>
+    <row r="198" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+    </row>
+    <row r="199" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+    </row>
+    <row r="200" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+    </row>
+    <row r="201" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+    </row>
+    <row r="202" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+    </row>
+    <row r="203" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+    </row>
+    <row r="204" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+    </row>
+    <row r="205" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+    </row>
+    <row r="206" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+    </row>
+    <row r="207" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+    </row>
+    <row r="208" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+    </row>
+    <row r="209" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+    </row>
+    <row r="210" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+    </row>
+    <row r="211" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+    </row>
+    <row r="212" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+    </row>
+    <row r="213" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+    </row>
+    <row r="214" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+    </row>
+    <row r="215" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+    </row>
+    <row r="216" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+    </row>
+    <row r="217" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+    </row>
+    <row r="218" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+    </row>
+    <row r="219" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+    </row>
+    <row r="220" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+    </row>
+    <row r="221" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+    </row>
+    <row r="222" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+    </row>
+    <row r="223" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+    </row>
+    <row r="224" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+    </row>
+    <row r="225" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+    </row>
+    <row r="226" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+    </row>
+    <row r="227" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+    </row>
+    <row r="228" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+    </row>
+    <row r="229" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+    </row>
+    <row r="230" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+    </row>
+    <row r="231" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+    </row>
+    <row r="232" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R232" s="1"/>
+    </row>
+    <row r="233" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R233" s="1"/>
+    </row>
+    <row r="234" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R234" s="1"/>
+    </row>
+    <row r="235" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R235" s="1"/>
+    </row>
+    <row r="236" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R236" s="1"/>
+    </row>
+    <row r="237" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R237" s="1"/>
+    </row>
+    <row r="238" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R238" s="1"/>
+    </row>
+    <row r="239" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R239" s="1"/>
+    </row>
+    <row r="240" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R240" s="1"/>
+    </row>
+    <row r="241" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R241" s="1"/>
+    </row>
+    <row r="242" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R242" s="1"/>
+    </row>
+    <row r="243" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R243" s="1"/>
+    </row>
+    <row r="244" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R244" s="1"/>
+    </row>
+    <row r="245" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R245" s="1"/>
+    </row>
+    <row r="246" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R246" s="1"/>
+    </row>
+    <row r="247" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R247" s="1"/>
+    </row>
+    <row r="248" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R248" s="1"/>
+    </row>
+    <row r="249" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R249" s="1"/>
+    </row>
+    <row r="250" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R250" s="1"/>
+    </row>
+    <row r="251" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R251" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T251">
+    <sortCondition ref="C2:C251"/>
+    <sortCondition ref="A2:A251"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
   </hyperlinks>
@@ -72221,7 +79581,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -72277,24 +79637,314 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="14"/>
+      <c r="A2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14">
+        <v>1.0131944444444445</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="14"/>
+      <c r="A3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1.4868055555555555</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="14"/>
+      <c r="A4" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2.432638888888889</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="14"/>
+      <c r="A5" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="14"/>
+      <c r="A6" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K7" s="14"/>
+      <c r="A7" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1.7506944444444446</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L9">
+    <sortCondition ref="C2:C9"/>
+    <sortCondition ref="A2:A9"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1F00-000000000000}"/>
   </hyperlinks>
@@ -72308,7 +79958,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="O9" sqref="O9:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2024_2025/Playoffs/BoxScores.xlsx
+++ b/2024_2025/Playoffs/BoxScores.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B7BB9E-F945-41B4-B693-E3FFAB6A58DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -46,11 +45,11 @@
     <sheet name="Offense (4-26-25)" sheetId="31" r:id="rId31"/>
     <sheet name="Goalies (4-26-25)" sheetId="32" r:id="rId32"/>
     <sheet name="Offense (4-27-25)" sheetId="34" r:id="rId33"/>
-    <sheet name="Rosters (Offense - 24)" sheetId="10" r:id="rId34"/>
-    <sheet name="Goalies (4-27-25)" sheetId="35" r:id="rId35"/>
-    <sheet name="Rosters (Goalies - 3)" sheetId="11" r:id="rId36"/>
-    <sheet name="Offense (4-28-25)" sheetId="40" r:id="rId37"/>
-    <sheet name="Goalies (4-28-25)" sheetId="41" r:id="rId38"/>
+    <sheet name="Goalies (4-27-25)" sheetId="35" r:id="rId34"/>
+    <sheet name="Offense (4-28-25)" sheetId="40" r:id="rId35"/>
+    <sheet name="Rosters (Offense - 24)" sheetId="10" r:id="rId36"/>
+    <sheet name="Goalies (4-28-25)" sheetId="41" r:id="rId37"/>
+    <sheet name="Rosters (Goalies - 3)" sheetId="11" r:id="rId38"/>
     <sheet name="Offense (4-29-25)" sheetId="42" r:id="rId39"/>
     <sheet name="Goalies (4-29-25)" sheetId="43" r:id="rId40"/>
     <sheet name="Offense (4-30-25)" sheetId="45" r:id="rId41"/>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5186" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5301" uniqueCount="538">
   <si>
     <t>Carolina Hurricanes</t>
   </si>
@@ -1687,7 +1686,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -2248,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2546,21 +2545,21 @@
     <mergeCell ref="A44:B44"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B12" location="'Scores (4-29-25)'!A1" display="Scores" xr:uid="{91AD551D-43AC-4C58-B1F8-C068192AE74E}"/>
-    <hyperlink ref="B13" location="'Scores (4-30-25)'!A1" display="Scores" xr:uid="{4E922E82-496B-4091-9DA4-951F097152F3}"/>
-    <hyperlink ref="B15" location="'Scores (5-1-25)'!A1" display="Scores" xr:uid="{AAB9F0C9-DFE3-4A78-9CD7-9B20EA93314F}"/>
-    <hyperlink ref="B16" location="'Scores (5-2-25)'!A1" display="Scores" xr:uid="{0A738509-8387-482F-9A49-07EF7B4C9AFD}"/>
+    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores"/>
+    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores"/>
+    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores"/>
+    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores"/>
+    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores"/>
+    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores"/>
+    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores"/>
+    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores"/>
+    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores"/>
+    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores"/>
+    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores"/>
+    <hyperlink ref="B12" location="'Scores (4-29-25)'!A1" display="Scores"/>
+    <hyperlink ref="B13" location="'Scores (4-30-25)'!A1" display="Scores"/>
+    <hyperlink ref="B15" location="'Scores (5-1-25)'!A1" display="Scores"/>
+    <hyperlink ref="B16" location="'Scores (5-2-25)'!A1" display="Scores"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2568,7 +2567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2692,21 +2691,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2719,11 +2718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,11 +2811,18 @@
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -2833,21 +2839,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2860,10 +2866,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2942,21 +2948,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="A5" location="'Offense (4-28-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="A6" location="'Goalies (4-28-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A5" location="'Offense (4-28-25)'!A1" display="Offense"/>
+    <hyperlink ref="A6" location="'Goalies (4-28-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2969,7 +2975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFFDE27-136D-4190-9CD2-EB955BF45FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3071,21 +3077,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{EAD4B3F7-E26C-4E49-99D3-73E45F745061}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{12BD12DF-4846-4FAB-BD3B-5D8AED174870}"/>
-    <hyperlink ref="A7" location="'Offense (4-29-25)'!A1" display="Offense" xr:uid="{A7B1D449-59D8-4A4A-8A4D-2CBE616F9337}"/>
-    <hyperlink ref="A8" location="'Goalies (4-29-25)'!A1" display="Goalies" xr:uid="{0E0DE5F8-D857-40C3-96CA-E23A09B303A5}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-29-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-29-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5150AAE-9453-4CCA-875D-49D0620B45B4}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -3098,7 +3104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D935754B-465F-4A8B-B8F6-466510CF2CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3190,21 +3196,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{E6C92C96-E4F6-4398-80D9-7AF9861239E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00CE15E3-B71D-4F0B-9298-E5B72CA4F245}"/>
-    <hyperlink ref="A6" location="'Offense (4-30-25)'!A1" display="Offense" xr:uid="{52725EA0-10D7-48C6-AA75-D6E5CE22C746}"/>
-    <hyperlink ref="A7" location="'Goalies (4-30-25)'!A1" display="Goalies" xr:uid="{BA07F909-54AA-4646-8C80-DD32EA0592BC}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A6" location="'Offense (4-30-25)'!A1" display="Offense"/>
+    <hyperlink ref="A7" location="'Goalies (4-30-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACA11AAA-B9C8-4667-968F-075CD892B703}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -3217,7 +3223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ACBF96-9897-4AC8-8554-EA8972C8B195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3307,21 +3313,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{2C9CF90E-8380-480F-99DA-B6B2DFB25632}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{6CFE539A-C121-481E-8872-C8A83309A24F}"/>
-    <hyperlink ref="A7" location="'Offense (5-1-25)'!A1" display="Offense" xr:uid="{3C28E921-F117-41C2-858F-34B54E9AE749}"/>
-    <hyperlink ref="A8" location="'Goalies (5-1-25)'!A1" display="Goalies" xr:uid="{39D9AB7E-27FA-44C6-ACF4-E6758DAFD1C9}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (5-1-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (5-1-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4216AA00-F1BF-4B5A-B2AD-AF69766C33EB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -3334,7 +3340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40997706-9105-4F03-BECF-9C1DEFBBF8AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3420,21 +3426,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{6408B506-A135-41F6-B26C-475ED4857696}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{FC5FF2FD-BF88-44D9-A273-4849AFA64E74}"/>
-    <hyperlink ref="A7" location="'Offense (5-1-25)'!A1" display="Offense" xr:uid="{8307581A-C3F5-4FEA-A5D2-A0706CC2B0F0}"/>
-    <hyperlink ref="A8" location="'Goalies (5-1-25)'!A1" display="Goalies" xr:uid="{FCA5DEB1-63BD-45F9-8E52-1DB0F764BF93}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (5-1-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (5-1-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7B5F0526-BC67-4A6E-946E-D8AA9555F681}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -3447,7 +3453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8043,11 +8049,11 @@
     <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:T55">
+  <sortState ref="A38:T55">
     <sortCondition ref="A38:A55"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8055,7 +8061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8271,7 +8277,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8279,7 +8285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15091,11 +15097,11 @@
     <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:T92">
+  <sortState ref="A75:T92">
     <sortCondition ref="A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15103,7 +15109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15331,7 +15337,7 @@
       <c r="M55" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C17">
+  <sortState ref="C2:C17">
     <sortCondition ref="C2:C17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15339,7 +15345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15623,7 +15629,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15631,7 +15637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24723,11 +24729,11 @@
     <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:T92">
+  <sortState ref="A75:T92">
     <sortCondition ref="A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24735,7 +24741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25097,7 +25103,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -25105,7 +25111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U248"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -34393,11 +34399,11 @@
       <c r="R248" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A111:V128">
+  <sortState ref="A111:V128">
     <sortCondition ref="A111"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -34405,7 +34411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -34765,7 +34771,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -34773,7 +34779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U280"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41857,12 +41863,12 @@
       <c r="R280" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T280">
+  <sortState ref="A2:T280">
     <sortCondition ref="C2:C280"/>
     <sortCondition ref="A2:A280"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -41870,7 +41876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42194,7 +42200,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -42202,7 +42208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U385"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -51685,12 +51691,12 @@
       <c r="R385" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T385">
+  <sortState ref="A2:T385">
     <sortCondition ref="C2:C385"/>
     <sortCondition ref="A2:A385"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -51698,7 +51704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -52133,12 +52139,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L11">
+  <sortState ref="A2:L11">
     <sortCondition ref="C2:C11"/>
     <sortCondition ref="A2:A11"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -52146,7 +52152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U290"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -59268,12 +59274,12 @@
       <c r="R290" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T290">
+  <sortState ref="A2:T290">
     <sortCondition ref="C2:C290"/>
     <sortCondition ref="A2:A290"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -59281,7 +59287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59371,21 +59377,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense"/>
+    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -59398,7 +59404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -59757,12 +59763,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L9">
+  <sortState ref="A2:L9">
     <sortCondition ref="C2:C9"/>
     <sortCondition ref="A2:A9"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -59770,7 +59776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -68862,11 +68868,11 @@
     <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A110:T127">
+  <sortState ref="A110:T127">
     <sortCondition ref="A110:A127"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1C00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -68874,7 +68880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -69274,7 +69280,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -69282,12 +69288,10 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:U251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U213"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="U110" sqref="U110"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -69296,8 +69300,9 @@
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="15" width="9.140625" style="1"/>
     <col min="16" max="18" width="9.140625" style="13"/>
-    <col min="19" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="29.28515625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="29.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -76063,256 +76068,2308 @@
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>4</v>
+      </c>
+      <c r="H110" s="1">
+        <v>2</v>
+      </c>
+      <c r="I110" s="1">
+        <v>2</v>
+      </c>
+      <c r="J110" s="1">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1">
+        <v>2</v>
+      </c>
+      <c r="L110" s="1">
+        <v>3</v>
+      </c>
+      <c r="M110" s="1">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1">
+        <v>1</v>
+      </c>
+      <c r="O110" s="1">
+        <v>33</v>
+      </c>
+      <c r="P110" s="13">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="Q110" s="13">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="R110" s="13">
+        <v>0.82152777777777775</v>
+      </c>
+      <c r="S110" s="1">
+        <v>0</v>
+      </c>
+      <c r="T110" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>3</v>
+      </c>
+      <c r="H111" s="1">
+        <v>2</v>
+      </c>
+      <c r="I111" s="1">
+        <v>2</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+      <c r="L111" s="1">
+        <v>5</v>
+      </c>
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1">
+        <v>1</v>
+      </c>
+      <c r="O111" s="1">
+        <v>35</v>
+      </c>
+      <c r="P111" s="13">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Q111" s="13">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R111" s="14">
+        <v>1.075</v>
+      </c>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+      <c r="T111" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-    </row>
-    <row r="113" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-    </row>
-    <row r="114" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-    </row>
-    <row r="115" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-    </row>
-    <row r="116" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-    </row>
-    <row r="117" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-    </row>
-    <row r="118" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-    </row>
-    <row r="119" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-    </row>
-    <row r="120" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-    </row>
-    <row r="121" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-    </row>
-    <row r="122" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-    </row>
-    <row r="123" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-    </row>
-    <row r="124" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-    </row>
-    <row r="125" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-    </row>
-    <row r="126" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-    </row>
-    <row r="127" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-    </row>
-    <row r="128" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
-      <c r="R128" s="1"/>
-    </row>
-    <row r="129" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-    </row>
-    <row r="130" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
-    </row>
-    <row r="131" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
-    </row>
-    <row r="132" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-    </row>
-    <row r="133" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-    </row>
-    <row r="134" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-    </row>
-    <row r="135" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-    </row>
-    <row r="136" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-    </row>
-    <row r="137" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-    </row>
-    <row r="138" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
-    </row>
-    <row r="139" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
-      <c r="R139" s="1"/>
-    </row>
-    <row r="140" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-    </row>
-    <row r="141" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
-      <c r="R141" s="1"/>
-    </row>
-    <row r="142" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-    </row>
-    <row r="143" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-    </row>
-    <row r="144" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-    </row>
-    <row r="145" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-    </row>
-    <row r="146" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>2</v>
+      </c>
+      <c r="M112" s="1">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>22</v>
+      </c>
+      <c r="P112" s="13">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="Q112" s="13">
+        <v>0</v>
+      </c>
+      <c r="R112" s="13">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="S112" s="1">
+        <v>0</v>
+      </c>
+      <c r="T112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>3</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>1</v>
+      </c>
+      <c r="M113" s="1">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>1</v>
+      </c>
+      <c r="O113" s="1">
+        <v>31</v>
+      </c>
+      <c r="P113" s="13">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="Q113" s="13">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="R113" s="13">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="S113" s="1">
+        <v>17</v>
+      </c>
+      <c r="T113" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>1</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1">
+        <v>1</v>
+      </c>
+      <c r="O114" s="1">
+        <v>18</v>
+      </c>
+      <c r="P114" s="13">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q114" s="13">
+        <v>0</v>
+      </c>
+      <c r="R114" s="13">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="S114" s="1">
+        <v>0</v>
+      </c>
+      <c r="T114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>2</v>
+      </c>
+      <c r="J115" s="1">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1">
+        <v>2</v>
+      </c>
+      <c r="L115" s="1">
+        <v>2</v>
+      </c>
+      <c r="M115" s="1">
+        <v>0</v>
+      </c>
+      <c r="N115" s="1">
+        <v>0</v>
+      </c>
+      <c r="O115" s="1">
+        <v>46</v>
+      </c>
+      <c r="P115" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q115" s="13">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="R115" s="14">
+        <v>1.2673611111111112</v>
+      </c>
+      <c r="S115" s="1">
+        <v>0</v>
+      </c>
+      <c r="T115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>2</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0</v>
+      </c>
+      <c r="M116" s="1">
+        <v>0</v>
+      </c>
+      <c r="N116" s="1">
+        <v>0</v>
+      </c>
+      <c r="O116" s="1">
+        <v>3</v>
+      </c>
+      <c r="P116" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="13">
+        <v>0</v>
+      </c>
+      <c r="R116" s="13">
+        <v>0.1013888888888889</v>
+      </c>
+      <c r="S116" s="1">
+        <v>0</v>
+      </c>
+      <c r="T116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0</v>
+      </c>
+      <c r="M117" s="1">
+        <v>0</v>
+      </c>
+      <c r="N117" s="1">
+        <v>0</v>
+      </c>
+      <c r="O117" s="1">
+        <v>5</v>
+      </c>
+      <c r="P117" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="13">
+        <v>0</v>
+      </c>
+      <c r="R117" s="13">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="S117" s="1">
+        <v>0</v>
+      </c>
+      <c r="T117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>8</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>4</v>
+      </c>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1">
+        <v>1</v>
+      </c>
+      <c r="O118" s="1">
+        <v>50</v>
+      </c>
+      <c r="P118" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="13">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="R118" s="14">
+        <v>1.4493055555555554</v>
+      </c>
+      <c r="S118" s="1">
+        <v>0</v>
+      </c>
+      <c r="T118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>5</v>
+      </c>
+      <c r="H119" s="1">
+        <v>4</v>
+      </c>
+      <c r="I119" s="1">
+        <v>2</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1">
+        <v>2</v>
+      </c>
+      <c r="M119" s="1">
+        <v>1</v>
+      </c>
+      <c r="N119" s="1">
+        <v>2</v>
+      </c>
+      <c r="O119" s="1">
+        <v>35</v>
+      </c>
+      <c r="P119" s="13">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="Q119" s="13">
+        <v>0</v>
+      </c>
+      <c r="R119" s="13">
+        <v>0.97430555555555554</v>
+      </c>
+      <c r="S119" s="1">
+        <v>0</v>
+      </c>
+      <c r="T119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
+      <c r="I120" s="1">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1">
+        <v>7</v>
+      </c>
+      <c r="M120" s="1">
+        <v>0</v>
+      </c>
+      <c r="N120" s="1">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>45</v>
+      </c>
+      <c r="P120" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="13">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="R120" s="14">
+        <v>1.2791666666666666</v>
+      </c>
+      <c r="S120" s="1">
+        <v>0</v>
+      </c>
+      <c r="T120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>5</v>
+      </c>
+      <c r="H121" s="1">
+        <v>3</v>
+      </c>
+      <c r="I121" s="1">
+        <v>5</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0</v>
+      </c>
+      <c r="M121" s="1">
+        <v>0</v>
+      </c>
+      <c r="N121" s="1">
+        <v>1</v>
+      </c>
+      <c r="O121" s="1">
+        <v>34</v>
+      </c>
+      <c r="P121" s="13">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="Q121" s="13">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="R121" s="13">
+        <v>0.99583333333333324</v>
+      </c>
+      <c r="S121" s="1">
+        <v>15</v>
+      </c>
+      <c r="T121" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>6</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>3</v>
+      </c>
+      <c r="M122" s="1">
+        <v>1</v>
+      </c>
+      <c r="N122" s="1">
+        <v>0</v>
+      </c>
+      <c r="O122" s="1">
+        <v>38</v>
+      </c>
+      <c r="P122" s="13">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="Q122" s="13">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="R122" s="14">
+        <v>1.0020833333333334</v>
+      </c>
+      <c r="S122" s="1">
+        <v>6</v>
+      </c>
+      <c r="T122" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>4</v>
+      </c>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
+      <c r="N123" s="1">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>3</v>
+      </c>
+      <c r="P123" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="13">
+        <v>0</v>
+      </c>
+      <c r="R123" s="13">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="S123" s="1">
+        <v>0</v>
+      </c>
+      <c r="T123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+      <c r="L124" s="1">
+        <v>5</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0</v>
+      </c>
+      <c r="N124" s="1">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>9</v>
+      </c>
+      <c r="P124" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="13">
+        <v>0</v>
+      </c>
+      <c r="R124" s="13">
+        <v>0.22152777777777777</v>
+      </c>
+      <c r="S124" s="1">
+        <v>0</v>
+      </c>
+      <c r="T124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2</v>
+      </c>
+      <c r="H125" s="1">
+        <v>2</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1">
+        <v>4</v>
+      </c>
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+      <c r="N125" s="1">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>32</v>
+      </c>
+      <c r="P125" s="13">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="Q125" s="13">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="R125" s="13">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="S125" s="1">
+        <v>0</v>
+      </c>
+      <c r="T125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>3</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126" s="1">
+        <v>1</v>
+      </c>
+      <c r="K126" s="1">
+        <v>2</v>
+      </c>
+      <c r="L126" s="1">
+        <v>1</v>
+      </c>
+      <c r="M126" s="1">
+        <v>0</v>
+      </c>
+      <c r="N126" s="1">
+        <v>3</v>
+      </c>
+      <c r="O126" s="1">
+        <v>42</v>
+      </c>
+      <c r="P126" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="13">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="R126" s="14">
+        <v>1.2645833333333334</v>
+      </c>
+      <c r="S126" s="1">
+        <v>0</v>
+      </c>
+      <c r="T126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>9</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
+      <c r="I127" s="1">
+        <v>3</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>0</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1">
+        <v>1</v>
+      </c>
+      <c r="O127" s="1">
+        <v>33</v>
+      </c>
+      <c r="P127" s="13">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="Q127" s="13">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="R127" s="13">
+        <v>0.8965277777777777</v>
+      </c>
+      <c r="S127" s="1">
+        <v>2</v>
+      </c>
+      <c r="T127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G128" s="1">
+        <v>2</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0</v>
+      </c>
+      <c r="L128" s="1">
+        <v>5</v>
+      </c>
+      <c r="M128" s="1">
+        <v>0</v>
+      </c>
+      <c r="N128" s="1">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>26</v>
+      </c>
+      <c r="P128" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="13">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="R128" s="13">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="S128" s="1">
+        <v>7</v>
+      </c>
+      <c r="T128" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1">
+        <v>3</v>
+      </c>
+      <c r="H129" s="1">
+        <v>2</v>
+      </c>
+      <c r="I129" s="1">
+        <v>2</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0</v>
+      </c>
+      <c r="L129" s="1">
+        <v>0</v>
+      </c>
+      <c r="M129" s="1">
+        <v>1</v>
+      </c>
+      <c r="N129" s="1">
+        <v>2</v>
+      </c>
+      <c r="O129" s="1">
+        <v>39</v>
+      </c>
+      <c r="P129" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="13">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="R129" s="14">
+        <v>1.1069444444444445</v>
+      </c>
+      <c r="S129" s="1">
+        <v>0</v>
+      </c>
+      <c r="T129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>1</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+      <c r="N130" s="1">
+        <v>1</v>
+      </c>
+      <c r="O130" s="1">
+        <v>24</v>
+      </c>
+      <c r="P130" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="13">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="R130" s="13">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="S130" s="1">
+        <v>0</v>
+      </c>
+      <c r="T130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1">
+        <v>7</v>
+      </c>
+      <c r="H131" s="1">
+        <v>3</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>1</v>
+      </c>
+      <c r="K131" s="1">
+        <v>2</v>
+      </c>
+      <c r="L131" s="1">
+        <v>1</v>
+      </c>
+      <c r="M131" s="1">
+        <v>0</v>
+      </c>
+      <c r="N131" s="1">
+        <v>2</v>
+      </c>
+      <c r="O131" s="1">
+        <v>35</v>
+      </c>
+      <c r="P131" s="13">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="Q131" s="13">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="R131" s="14">
+        <v>1.1194444444444445</v>
+      </c>
+      <c r="S131" s="1">
+        <v>6</v>
+      </c>
+      <c r="T131" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1">
+        <v>4</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+      <c r="L132" s="1">
+        <v>4</v>
+      </c>
+      <c r="M132" s="1">
+        <v>0</v>
+      </c>
+      <c r="N132" s="1">
+        <v>2</v>
+      </c>
+      <c r="O132" s="1">
+        <v>27</v>
+      </c>
+      <c r="P132" s="13">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="Q132" s="13">
+        <v>0</v>
+      </c>
+      <c r="R132" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="S132" s="1">
+        <v>0</v>
+      </c>
+      <c r="T132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G133" s="1">
+        <v>3</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>1</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>5</v>
+      </c>
+      <c r="M133" s="1">
+        <v>0</v>
+      </c>
+      <c r="N133" s="1">
+        <v>2</v>
+      </c>
+      <c r="O133" s="1">
+        <v>42</v>
+      </c>
+      <c r="P133" s="13">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Q133" s="13">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="R133" s="14">
+        <v>1.0013888888888889</v>
+      </c>
+      <c r="S133" s="1">
+        <v>0</v>
+      </c>
+      <c r="T133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1">
+        <v>2</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G134" s="1">
+        <v>9</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
+      <c r="I134" s="1">
+        <v>1</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0</v>
+      </c>
+      <c r="L134" s="1">
+        <v>1</v>
+      </c>
+      <c r="M134" s="1">
+        <v>1</v>
+      </c>
+      <c r="N134" s="1">
+        <v>2</v>
+      </c>
+      <c r="O134" s="1">
+        <v>43</v>
+      </c>
+      <c r="P134" s="13">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="Q134" s="13">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="R134" s="14">
+        <v>1.2486111111111111</v>
+      </c>
+      <c r="S134" s="1">
+        <v>0</v>
+      </c>
+      <c r="T134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G135" s="1">
+        <v>4</v>
+      </c>
+      <c r="H135" s="1">
+        <v>4</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+      <c r="L135" s="1">
+        <v>4</v>
+      </c>
+      <c r="M135" s="1">
+        <v>0</v>
+      </c>
+      <c r="N135" s="1">
+        <v>1</v>
+      </c>
+      <c r="O135" s="1">
+        <v>29</v>
+      </c>
+      <c r="P135" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="13">
+        <v>0</v>
+      </c>
+      <c r="R135" s="13">
+        <v>0.97430555555555554</v>
+      </c>
+      <c r="S135" s="1">
+        <v>1</v>
+      </c>
+      <c r="T135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1">
+        <v>3</v>
+      </c>
+      <c r="H136" s="1">
+        <v>7</v>
+      </c>
+      <c r="I136" s="1">
+        <v>4</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0</v>
+      </c>
+      <c r="L136" s="1">
+        <v>2</v>
+      </c>
+      <c r="M136" s="1">
+        <v>2</v>
+      </c>
+      <c r="N136" s="1">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>35</v>
+      </c>
+      <c r="P136" s="13">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="Q136" s="13">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="R136" s="14">
+        <v>1.0541666666666667</v>
+      </c>
+      <c r="S136" s="1">
+        <v>0</v>
+      </c>
+      <c r="T136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
+        <v>2</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1</v>
+      </c>
+      <c r="I137" s="1">
+        <v>1</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0</v>
+      </c>
+      <c r="L137" s="1">
+        <v>1</v>
+      </c>
+      <c r="M137" s="1">
+        <v>0</v>
+      </c>
+      <c r="N137" s="1">
+        <v>3</v>
+      </c>
+      <c r="O137" s="1">
+        <v>33</v>
+      </c>
+      <c r="P137" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="13">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="R137" s="14">
+        <v>1.070138888888889</v>
+      </c>
+      <c r="S137" s="1">
+        <v>0</v>
+      </c>
+      <c r="T137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>3</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1">
+        <v>4</v>
+      </c>
+      <c r="H138" s="1">
+        <v>4</v>
+      </c>
+      <c r="I138" s="1">
+        <v>1</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0</v>
+      </c>
+      <c r="L138" s="1">
+        <v>4</v>
+      </c>
+      <c r="M138" s="1">
+        <v>1</v>
+      </c>
+      <c r="N138" s="1">
+        <v>0</v>
+      </c>
+      <c r="O138" s="1">
+        <v>32</v>
+      </c>
+      <c r="P138" s="13">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="Q138" s="13">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="R138" s="14">
+        <v>1.1277777777777778</v>
+      </c>
+      <c r="S138" s="1">
+        <v>10</v>
+      </c>
+      <c r="T138" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0</v>
+      </c>
+      <c r="G139" s="1">
+        <v>1</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1">
+        <v>1</v>
+      </c>
+      <c r="K139" s="1">
+        <v>2</v>
+      </c>
+      <c r="L139" s="1">
+        <v>0</v>
+      </c>
+      <c r="M139" s="1">
+        <v>0</v>
+      </c>
+      <c r="N139" s="1">
+        <v>1</v>
+      </c>
+      <c r="O139" s="1">
+        <v>18</v>
+      </c>
+      <c r="P139" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="13">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="R139" s="13">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="S139" s="1">
+        <v>0</v>
+      </c>
+      <c r="T139" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G140" s="1">
+        <v>3</v>
+      </c>
+      <c r="H140" s="1">
+        <v>2</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>0</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>1</v>
+      </c>
+      <c r="M140" s="1">
+        <v>0</v>
+      </c>
+      <c r="N140" s="1">
+        <v>1</v>
+      </c>
+      <c r="O140" s="1">
+        <v>29</v>
+      </c>
+      <c r="P140" s="13">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="Q140" s="13">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="R140" s="13">
+        <v>0.70763888888888893</v>
+      </c>
+      <c r="S140" s="1">
+        <v>8</v>
+      </c>
+      <c r="T140" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0</v>
+      </c>
+      <c r="G141" s="1">
+        <v>1</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0</v>
+      </c>
+      <c r="L141" s="1">
+        <v>5</v>
+      </c>
+      <c r="M141" s="1">
+        <v>0</v>
+      </c>
+      <c r="N141" s="1">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>17</v>
+      </c>
+      <c r="P141" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="13">
+        <v>0</v>
+      </c>
+      <c r="R141" s="13">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="S141" s="1">
+        <v>1</v>
+      </c>
+      <c r="T141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1">
+        <v>1</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>1</v>
+      </c>
+      <c r="M142" s="1">
+        <v>0</v>
+      </c>
+      <c r="N142" s="1">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>12</v>
+      </c>
+      <c r="P142" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="13">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="R142" s="13">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="S142" s="1">
+        <v>0</v>
+      </c>
+      <c r="T142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0</v>
+      </c>
+      <c r="L143" s="1">
+        <v>7</v>
+      </c>
+      <c r="M143" s="1">
+        <v>0</v>
+      </c>
+      <c r="N143" s="1">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>14</v>
+      </c>
+      <c r="P143" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="13">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="R143" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="S143" s="1">
+        <v>0</v>
+      </c>
+      <c r="T143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1">
+        <v>2</v>
+      </c>
+      <c r="H144" s="1">
+        <v>2</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1">
+        <v>1</v>
+      </c>
+      <c r="K144" s="1">
+        <v>2</v>
+      </c>
+      <c r="L144" s="1">
+        <v>0</v>
+      </c>
+      <c r="M144" s="1">
+        <v>1</v>
+      </c>
+      <c r="N144" s="1">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>18</v>
+      </c>
+      <c r="P144" s="13">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="Q144" s="13">
+        <v>0</v>
+      </c>
+      <c r="R144" s="13">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="S144" s="1">
+        <v>1</v>
+      </c>
+      <c r="T144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+      <c r="H145" s="1">
+        <v>3</v>
+      </c>
+      <c r="I145" s="1">
+        <v>2</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>0</v>
+      </c>
+      <c r="L145" s="1">
+        <v>12</v>
+      </c>
+      <c r="M145" s="1">
+        <v>0</v>
+      </c>
+      <c r="N145" s="1">
+        <v>0</v>
+      </c>
+      <c r="O145" s="1">
+        <v>28</v>
+      </c>
+      <c r="P145" s="13">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Q145" s="13">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="R145" s="13">
+        <v>0.85625000000000007</v>
+      </c>
+      <c r="S145" s="1">
+        <v>0</v>
+      </c>
+      <c r="T145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
     </row>
-    <row r="147" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
     </row>
-    <row r="148" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
     </row>
-    <row r="149" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
     </row>
-    <row r="150" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
     </row>
-    <row r="151" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
     </row>
-    <row r="152" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
     </row>
-    <row r="153" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
     </row>
-    <row r="154" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
     </row>
-    <row r="155" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
     </row>
-    <row r="156" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
     </row>
-    <row r="157" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
     </row>
-    <row r="158" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
     </row>
-    <row r="159" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
     </row>
-    <row r="160" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
@@ -76582,163 +78639,12 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
     </row>
-    <row r="214" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
-    </row>
-    <row r="215" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-    </row>
-    <row r="216" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-    </row>
-    <row r="217" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-    </row>
-    <row r="218" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-    </row>
-    <row r="219" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-    </row>
-    <row r="220" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-    </row>
-    <row r="221" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
-    </row>
-    <row r="222" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
-      <c r="R222" s="1"/>
-    </row>
-    <row r="223" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
-      <c r="R223" s="1"/>
-    </row>
-    <row r="224" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
-      <c r="R224" s="1"/>
-    </row>
-    <row r="225" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
-    </row>
-    <row r="226" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
-    </row>
-    <row r="227" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
-      <c r="R227" s="1"/>
-    </row>
-    <row r="228" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-    </row>
-    <row r="229" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
-    </row>
-    <row r="230" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
-    </row>
-    <row r="231" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
-    </row>
-    <row r="232" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="R232" s="1"/>
-    </row>
-    <row r="233" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="R233" s="1"/>
-    </row>
-    <row r="234" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="R234" s="1"/>
-    </row>
-    <row r="235" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="R235" s="1"/>
-    </row>
-    <row r="236" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="R236" s="1"/>
-    </row>
-    <row r="237" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="R237" s="1"/>
-    </row>
-    <row r="238" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="R238" s="1"/>
-    </row>
-    <row r="239" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="R239" s="1"/>
-    </row>
-    <row r="240" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="R240" s="1"/>
-    </row>
-    <row r="241" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R241" s="1"/>
-    </row>
-    <row r="242" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R242" s="1"/>
-    </row>
-    <row r="243" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R243" s="1"/>
-    </row>
-    <row r="244" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R244" s="1"/>
-    </row>
-    <row r="245" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R245" s="1"/>
-    </row>
-    <row r="246" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R246" s="1"/>
-    </row>
-    <row r="247" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R247" s="1"/>
-    </row>
-    <row r="248" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R248" s="1"/>
-    </row>
-    <row r="249" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R249" s="1"/>
-    </row>
-    <row r="250" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R250" s="1"/>
-    </row>
-    <row r="251" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R251" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T251">
-    <sortCondition ref="C2:C251"/>
-    <sortCondition ref="A2:A251"/>
+  <sortState ref="A111:T128">
+    <sortCondition ref="A111"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
+    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -76746,7 +78652,551 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14">
+        <v>1.0131944444444445</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1.4868055555555555</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2.432638888888889</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1.7506944444444446</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>3.1833333333333336</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14">
+        <v>3.2597222222222224</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:L9">
+    <sortCondition ref="C2:C9"/>
+    <sortCondition ref="A2:A9"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="13"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-28-25)'!A1" display="HOME"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -79579,9 +82029,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:M9"/>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -79637,328 +82087,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="14">
-        <v>1.0131944444444445</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
-        <v>1.4868055555555555</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>2.432638888888889</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <v>1.7506944444444446</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0.74930555555555556</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
+      <c r="K7" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L9">
-    <sortCondition ref="C2:C9"/>
-    <sortCondition ref="A2:A9"/>
-  </sortState>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1F00-000000000000}"/>
+    <hyperlink ref="M1" location="'Scores (4-28-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80439,8 +82599,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D15D07-C9EA-4B83-A115-46CEBD78A455}">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -80526,15 +82686,146 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-28-25)'!A1" display="HOME" xr:uid="{866AC6B9-5021-4D0A-9ED6-B7D2A7A5D5B2}"/>
+    <hyperlink ref="U1" location="'Scores (4-29-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC47B60-5A81-4478-9598-11DF353FE2C9}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense"/>
+    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Teams!$C$2:$C$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C5 A3:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -80610,15 +82901,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-28-25)'!A1" display="HOME" xr:uid="{25218843-0184-4DE2-81F8-FD536A79DD51}"/>
+    <hyperlink ref="M1" location="'Scores (4-29-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79004E32-A077-403A-B4A5-CD89E2A8C80D}">
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -80704,150 +82995,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-29-25)'!A1" display="HOME" xr:uid="{A3CC51E7-6807-4428-A844-BDB96CDF0736}"/>
+    <hyperlink ref="U1" location="'Scores (4-30-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="17">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="19">
-        <v>2</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>$AA$1:$AA$2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
-          <x14:formula1>
-            <xm:f>Teams!$C$2:$C$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C5 A3:A5</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B573F7-74A2-4A37-A197-65B7E76D9463}">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80919,15 +83079,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-29-25)'!A1" display="HOME" xr:uid="{0C5CE4BD-2794-4511-982D-2A8340DF234B}"/>
+    <hyperlink ref="M1" location="'Scores (4-30-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6BCAF6-6BF3-4D88-8332-CA309792BD24}">
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -81013,185 +83173,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-30-25)'!A1" display="HOME" xr:uid="{1B962EDA-913F-4DB4-8DEB-2B33283FE18F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55EC221-BFC3-4BE9-AD5C-05458D915557}">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K7" s="14"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-30-25)'!A1" display="HOME" xr:uid="{8318A46F-857F-4B1C-BAF8-A8F8A6C4FAA8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8C0DB1-DA65-4217-A1BD-147FB68E83BB}">
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="13"/>
-    <col min="19" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (5-1-25)'!A1" display="HOME" xr:uid="{BDE7F737-1A4F-4B58-BBF7-6827065BE0CB}"/>
+    <hyperlink ref="U1" location="'Scores (5-1-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -81199,7 +83181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3381F0-CCE4-4A26-86C4-828A15786F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -81275,7 +83257,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (5-1-25)'!A1" display="HOME" xr:uid="{D6EF0053-0BB2-42E7-B7B3-60223A022AD4}"/>
+    <hyperlink ref="M1" location="'Scores (5-1-25)'!A1" display="HOME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -81283,7 +83265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -81407,21 +83389,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -81434,7 +83416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -81555,21 +83537,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -81582,7 +83564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -81689,21 +83671,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense"/>
+    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -81716,7 +83698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -81837,21 +83819,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense"/>
+    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -81864,7 +83846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -81974,24 +83956,24 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E5" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E5">
       <formula1>$AA$2:$AA$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{E9E8CD5E-B413-44AC-95C1-51475D19801B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
       <formula1>$AA$1:$AA$3</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
+    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense"/>
+    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/BoxScores.xlsx
+++ b/2024_2025/Playoffs/BoxScores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1388A9EC-307E-4F07-B603-D9E66112CE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5301" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5415" uniqueCount="538">
   <si>
     <t>Carolina Hurricanes</t>
   </si>
@@ -1686,7 +1687,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -2247,7 +2248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2545,21 +2546,21 @@
     <mergeCell ref="A44:B44"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores"/>
-    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores"/>
-    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores"/>
-    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores"/>
-    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores"/>
-    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores"/>
-    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores"/>
-    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores"/>
-    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores"/>
-    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores"/>
-    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores"/>
-    <hyperlink ref="B12" location="'Scores (4-29-25)'!A1" display="Scores"/>
-    <hyperlink ref="B13" location="'Scores (4-30-25)'!A1" display="Scores"/>
-    <hyperlink ref="B15" location="'Scores (5-1-25)'!A1" display="Scores"/>
-    <hyperlink ref="B16" location="'Scores (5-2-25)'!A1" display="Scores"/>
+    <hyperlink ref="B2" location="'Scores (4-19-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'Scores (4-20-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'Scores (4-21-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6:B10" location="'Scores (4-22-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B6" location="'Scores (4-23-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" location="'Scores (4-24-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" location="'Scores (4-25-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B9" location="'Scores (4-26-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B10" location="'Scores (4-27-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B11" location="'Scores (4-28-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B12" location="'Scores (4-29-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B13" location="'Scores (4-30-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" location="'Scores (5-1-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" location="'Scores (5-2-25)'!A1" display="Scores" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2567,7 +2568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2691,21 +2692,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-26-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-26-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2718,7 +2719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2839,21 +2840,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-27-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-27-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2866,11 +2867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,11 +2918,15 @@
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="17">
+        <v>2</v>
+      </c>
       <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -2948,21 +2953,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A5" location="'Offense (4-28-25)'!A1" display="Offense"/>
-    <hyperlink ref="A6" location="'Goalies (4-28-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A5" location="'Offense (4-28-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="A6" location="'Goalies (4-28-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -2975,7 +2980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3077,21 +3082,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-29-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-29-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-29-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-29-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0C00-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -3104,7 +3109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3196,21 +3201,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A6" location="'Offense (4-30-25)'!A1" display="Offense"/>
-    <hyperlink ref="A7" location="'Goalies (4-30-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="A6" location="'Offense (4-30-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="A7" location="'Goalies (4-30-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0D00-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -3223,7 +3228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3313,21 +3318,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (5-1-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (5-1-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (5-1-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (5-1-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0E00-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -3340,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3426,21 +3431,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (5-1-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (5-1-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (5-1-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (5-1-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0F00-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -3453,7 +3458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8049,11 +8054,11 @@
     <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A38:T55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:T55">
     <sortCondition ref="A38:A55"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8061,7 +8066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8277,7 +8282,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-19-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8285,7 +8290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:U130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15097,11 +15102,11 @@
     <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A75:T92">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:T92">
     <sortCondition ref="A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15109,7 +15114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15337,7 +15342,7 @@
       <c r="M55" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="C2:C17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C17">
     <sortCondition ref="C2:C17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15345,7 +15350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15629,7 +15634,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-20-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15637,7 +15642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:U166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24729,11 +24734,11 @@
     <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A75:T92">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:T92">
     <sortCondition ref="A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24741,7 +24746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25103,7 +25108,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-21-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -25111,7 +25116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U248"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -34399,11 +34404,11 @@
       <c r="R248" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A111:V128">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A111:V128">
     <sortCondition ref="A111"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -34411,7 +34416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -34771,7 +34776,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-22-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -34779,7 +34784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:U280"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41863,12 +41868,12 @@
       <c r="R280" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:T280">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T280">
     <sortCondition ref="C2:C280"/>
     <sortCondition ref="A2:A280"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -41876,7 +41881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42200,7 +42205,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-23-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -42208,7 +42213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:U385"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -51691,12 +51696,12 @@
       <c r="R385" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:T385">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T385">
     <sortCondition ref="C2:C385"/>
     <sortCondition ref="A2:A385"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -51704,7 +51709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -52139,12 +52144,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L11">
     <sortCondition ref="C2:C11"/>
     <sortCondition ref="A2:A11"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-24-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -52152,7 +52157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:U290"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -59274,12 +59279,12 @@
       <c r="R290" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:T290">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T290">
     <sortCondition ref="C2:C290"/>
     <sortCondition ref="A2:A290"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -59287,7 +59292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59377,21 +59382,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense"/>
-    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A5" location="'Offense (4-19-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A6" location="'Goalies (4-19-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -59404,7 +59409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -59763,12 +59768,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L9">
     <sortCondition ref="C2:C9"/>
     <sortCondition ref="A2:A9"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-25-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -59776,7 +59781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:U166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -68868,11 +68873,11 @@
     <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A110:T127">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A110:T127">
     <sortCondition ref="A110:A127"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -68880,7 +68885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -69280,7 +69285,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-26-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-1F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -69288,7 +69293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:U213"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -78374,277 +78379,65 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
     </row>
-    <row r="161" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-    </row>
-    <row r="162" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-    </row>
-    <row r="163" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-    </row>
-    <row r="164" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-    </row>
-    <row r="165" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-    </row>
-    <row r="166" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-    </row>
-    <row r="167" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-    </row>
-    <row r="168" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-    </row>
-    <row r="169" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-    </row>
-    <row r="170" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-    </row>
-    <row r="171" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-    </row>
-    <row r="172" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-    </row>
-    <row r="173" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-    </row>
-    <row r="174" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-    </row>
-    <row r="175" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
-      <c r="R175" s="1"/>
-    </row>
-    <row r="176" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-    </row>
-    <row r="177" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-    </row>
-    <row r="178" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-    </row>
-    <row r="179" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-    </row>
-    <row r="180" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-    </row>
-    <row r="181" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-    </row>
-    <row r="182" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
-      <c r="R182" s="1"/>
-    </row>
-    <row r="183" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
-    </row>
-    <row r="184" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-    </row>
-    <row r="185" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
-    </row>
-    <row r="186" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
-    </row>
-    <row r="187" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
-      <c r="R187" s="1"/>
-    </row>
-    <row r="188" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P188" s="1"/>
-      <c r="Q188" s="1"/>
-      <c r="R188" s="1"/>
-    </row>
-    <row r="189" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
-    </row>
-    <row r="190" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P190" s="1"/>
-      <c r="Q190" s="1"/>
-      <c r="R190" s="1"/>
-    </row>
-    <row r="191" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P191" s="1"/>
-      <c r="Q191" s="1"/>
-      <c r="R191" s="1"/>
-    </row>
-    <row r="192" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P192" s="1"/>
-      <c r="Q192" s="1"/>
-      <c r="R192" s="1"/>
-    </row>
-    <row r="193" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P193" s="1"/>
-      <c r="Q193" s="1"/>
-      <c r="R193" s="1"/>
-    </row>
-    <row r="194" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
-      <c r="R194" s="1"/>
-    </row>
-    <row r="195" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
-      <c r="R195" s="1"/>
-    </row>
-    <row r="196" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P196" s="1"/>
-      <c r="Q196" s="1"/>
-      <c r="R196" s="1"/>
-    </row>
-    <row r="197" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
-      <c r="R197" s="1"/>
-    </row>
-    <row r="198" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P198" s="1"/>
-      <c r="Q198" s="1"/>
-      <c r="R198" s="1"/>
-    </row>
-    <row r="199" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-    </row>
-    <row r="200" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-    </row>
-    <row r="201" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
-    </row>
-    <row r="202" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
-      <c r="R202" s="1"/>
-    </row>
-    <row r="203" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-    </row>
-    <row r="204" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P204" s="1"/>
-      <c r="Q204" s="1"/>
-      <c r="R204" s="1"/>
-    </row>
-    <row r="205" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
-      <c r="R205" s="1"/>
-    </row>
-    <row r="206" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
-    </row>
-    <row r="207" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
-      <c r="R207" s="1"/>
-    </row>
-    <row r="208" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
-      <c r="R208" s="1"/>
-    </row>
-    <row r="209" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
-      <c r="R209" s="1"/>
-    </row>
-    <row r="210" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
-    </row>
-    <row r="211" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
-    </row>
-    <row r="212" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
-    </row>
-    <row r="213" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
-    </row>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A111:T128">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A111:T128">
     <sortCondition ref="A111"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-2000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -78652,7 +78445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -79089,12 +78882,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L9">
     <sortCondition ref="C2:C9"/>
     <sortCondition ref="A2:A9"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-27-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-2100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -79102,11 +78895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79186,9 +78979,2349 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>26</v>
+      </c>
+      <c r="P2" s="13">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>12</v>
+      </c>
+      <c r="P3" s="13">
+        <v>5.7638888888888892E-2</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>30</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="S4" s="1">
+        <v>6</v>
+      </c>
+      <c r="T4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>13</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.15625</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>14</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>28</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>20</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>27</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>29</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0.15694444444444444</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>5.1388888888888887E-2</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.79583333333333328</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>19</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="S11" s="1">
+        <v>11</v>
+      </c>
+      <c r="T11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>19</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>21</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>16</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>28</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0.2076388888888889</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>29</v>
+      </c>
+      <c r="P16" s="13">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0.17083333333333334</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>31</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>7.1527777777777773E-2</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>24</v>
+      </c>
+      <c r="P18" s="13">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>19</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>9.583333333333334E-2</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0.37291666666666667</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>9</v>
+      </c>
+      <c r="P20" s="13">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>34</v>
+      </c>
+      <c r="P21" s="13">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="R21" s="13">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>28</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="S22" s="1">
+        <v>10</v>
+      </c>
+      <c r="T22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>25</v>
+      </c>
+      <c r="P23" s="13">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0.1125</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="S23" s="1">
+        <v>5</v>
+      </c>
+      <c r="T23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>26</v>
+      </c>
+      <c r="P24" s="13">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="R24" s="13">
+        <v>0.47638888888888886</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>5</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>26</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0.16111111111111112</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>5</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>25</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0.13819444444444445</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>25</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0.10625</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>25</v>
+      </c>
+      <c r="P28" s="13">
+        <v>8.611111111111111E-2</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="S28" s="1">
+        <v>2</v>
+      </c>
+      <c r="T28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>31</v>
+      </c>
+      <c r="P29" s="13">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="R29" s="13">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>10</v>
+      </c>
+      <c r="P30" s="13">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>23</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>20</v>
+      </c>
+      <c r="P32" s="13">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>0</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>12</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0.19236111111111112</v>
+      </c>
+      <c r="S33" s="1">
+        <v>4</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>15</v>
+      </c>
+      <c r="L34" s="1">
+        <v>8</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>21</v>
+      </c>
+      <c r="P34" s="13">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>4.791666666666667E-2</v>
+      </c>
+      <c r="R34" s="13">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>25</v>
+      </c>
+      <c r="P35" s="13">
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>0</v>
+      </c>
+      <c r="R35" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="S35" s="1">
+        <v>3</v>
+      </c>
+      <c r="T35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>28</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="R36" s="13">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="S36" s="1">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>33</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>0.13819444444444445</v>
+      </c>
+      <c r="R37" s="13">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-28-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-28-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -79196,7 +81329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -82030,7 +84163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -82087,10 +84220,80 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="14"/>
+      <c r="A2" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2.4937499999999999</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="14"/>
+      <c r="A3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2.4361111111111109</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K4" s="14"/>
@@ -82106,7 +84309,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-28-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-28-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -82114,11 +84317,11 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82600,7 +84803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -82686,7 +84889,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-29-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-29-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-2600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -82694,7 +84897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -82798,21 +85001,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense"/>
-    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A6" location="'Offense (4-20-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A7" location="'Goalies (4-20-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -82825,7 +85028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -82901,7 +85104,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-29-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-29-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-2700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -82909,7 +85112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -82995,7 +85198,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (4-30-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (4-30-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-2800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -83003,7 +85206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -83079,7 +85282,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (4-30-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (4-30-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-2900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -83087,7 +85290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -83173,7 +85376,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (5-1-25)'!A1" display="HOME"/>
+    <hyperlink ref="U1" location="'Scores (5-1-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-2A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -83181,7 +85384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -83257,7 +85460,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (5-1-25)'!A1" display="HOME"/>
+    <hyperlink ref="M1" location="'Scores (5-1-25)'!A1" display="HOME" xr:uid="{00000000-0004-0000-2B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -83265,7 +85468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -83389,21 +85592,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-21-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-21-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -83416,7 +85619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -83537,21 +85740,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-22-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-22-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -83564,7 +85767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -83671,21 +85874,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense"/>
-    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A6" location="'Offense (4-23-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A7" location="'Goalies (4-23-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -83698,7 +85901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -83819,21 +86022,21 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense"/>
-    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A7" location="'Offense (4-24-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="A8" location="'Goalies (4-24-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
@@ -83846,7 +86049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -83956,24 +86159,24 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E5" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>$AA$2:$AA$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>$AA$1:$AA$3</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX"/>
-    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense"/>
-    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A6" location="'Offense (4-25-25)'!A1" display="Offense" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="A7" location="'Goalies (4-25-25)'!A1" display="Goalies" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000002000000}">
           <x14:formula1>
             <xm:f>Teams!$C$2:$C$17</xm:f>
           </x14:formula1>
